--- a/WeiJingShuZhi/经验表.xlsx
+++ b/WeiJingShuZhi/经验表.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364698D1-146F-4C38-B06F-020FB582E807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="怪物经验" sheetId="3" r:id="rId3"/>
-    <sheet name="任务经验" sheetId="4" r:id="rId4"/>
-    <sheet name="组队副本" sheetId="5" r:id="rId5"/>
+    <sheet name="家族经验" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="怪物经验" sheetId="3" r:id="rId4"/>
+    <sheet name="任务经验" sheetId="4" r:id="rId5"/>
+    <sheet name="组队副本" sheetId="5" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>等级</t>
   </si>
@@ -157,18 +164,96 @@
   <si>
     <t>副本BOSS数量</t>
   </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员上限</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次任务经验</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次捐献</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天经验产出</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验修</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计捐献次数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天捐献上限</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘10-30</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>’2-8</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐献金币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐献满人次</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机杀怪</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机要东西</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>家族捐献</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>家族等级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天捐献</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总天数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +265,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -187,6 +273,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -194,6 +281,7 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -201,6 +289,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -208,6 +297,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -215,155 +305,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,198 +344,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -615,254 +383,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -895,71 +421,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="13"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 6" xfId="1" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="总经验表"/>
@@ -1561,19 +1051,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="11.375" style="3" customWidth="1"/>
@@ -1585,7 +1075,7 @@
     <col min="17" max="17" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:11">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1617,7 +1107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:18">
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1634,11 +1124,11 @@
       </c>
       <c r="E2" s="1">
         <f>D2/$R$4</f>
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F2" s="1">
         <f>SUM($E$2:E2)</f>
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G2" s="1">
         <f>D2*怪物经验!C2</f>
@@ -1668,7 +1158,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:18">
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1689,7 +1179,7 @@
       </c>
       <c r="F3" s="1">
         <f>SUM($E$2:E3)</f>
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G3" s="1">
         <f>D3*怪物经验!C3</f>
@@ -1719,7 +1209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:18">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1740,7 +1230,7 @@
       </c>
       <c r="F4" s="1">
         <f>SUM($E$2:E4)</f>
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G4" s="1">
         <f>D4*怪物经验!C4</f>
@@ -1771,7 +1261,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:18">
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1792,7 +1282,7 @@
       </c>
       <c r="F5" s="1">
         <f>SUM($E$2:E5)</f>
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="G5" s="1">
         <f>D5*怪物经验!C5</f>
@@ -1822,7 +1312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1867,7 +1357,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1885,7 +1375,7 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F7" s="1">
         <f>SUM($E$2:E7)</f>
@@ -1913,7 +1403,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:23">
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1934,7 +1424,7 @@
       </c>
       <c r="F8" s="1">
         <f>SUM($E$2:E8)</f>
-        <v>0.29</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="G8" s="1">
         <f>D8*怪物经验!C8</f>
@@ -1977,7 +1467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:23">
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2038,7 +1528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:23">
+    <row r="10" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2099,7 +1589,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:23">
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2161,7 +1651,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:21">
+    <row r="12" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2179,7 +1669,7 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F12" s="1">
         <f>SUM($E$2:E12)</f>
@@ -2213,7 +1703,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:21">
+    <row r="13" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2235,7 +1725,7 @@
       </c>
       <c r="F13" s="1">
         <f>SUM($E$2:E13)</f>
-        <v>0.94</v>
+        <v>0.94000000000000006</v>
       </c>
       <c r="G13" s="1">
         <f>D13*怪物经验!C13</f>
@@ -2265,7 +1755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:21">
+    <row r="14" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2287,7 +1777,7 @@
       </c>
       <c r="F14" s="1">
         <f>SUM($E$2:E14)</f>
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G14" s="1">
         <f>D14*怪物经验!C14</f>
@@ -2321,7 +1811,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="15" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2367,7 +1857,7 @@
         <v>27280</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:21">
+    <row r="16" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2420,7 +1910,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2442,7 +1932,7 @@
       </c>
       <c r="F17" s="1">
         <f>SUM($E$2:E17)</f>
-        <v>1.48</v>
+        <v>1.4800000000000002</v>
       </c>
       <c r="G17" s="1">
         <f>D17*怪物经验!C17</f>
@@ -2467,7 +1957,7 @@
         <v>54380</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2514,7 +2004,7 @@
         <v>61740</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2561,7 +2051,7 @@
         <v>69500</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2607,7 +2097,7 @@
         <v>110300</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2654,7 +2144,7 @@
         <v>122220</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2676,7 +2166,7 @@
       </c>
       <c r="F22" s="1">
         <f>SUM($E$2:E22)</f>
-        <v>2.36</v>
+        <v>2.3600000000000003</v>
       </c>
       <c r="G22" s="1">
         <f>D22*怪物经验!C22</f>
@@ -2701,7 +2191,7 @@
         <v>135050</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2723,7 +2213,7 @@
       </c>
       <c r="F23" s="1">
         <f>SUM($E$2:E23)</f>
-        <v>2.59</v>
+        <v>2.5900000000000003</v>
       </c>
       <c r="G23" s="1">
         <f>D23*怪物经验!C23</f>
@@ -2748,7 +2238,7 @@
         <v>148200</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2795,7 +2285,7 @@
         <v>161950</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2842,7 +2332,7 @@
         <v>176300</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2889,7 +2379,7 @@
         <v>191250</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2930,13 +2420,13 @@
       </c>
       <c r="K27" s="1">
         <f t="shared" si="5"/>
-        <v>79380</v>
+        <v>79380.000000000015</v>
       </c>
       <c r="M27" s="13">
         <v>207260</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2954,11 +2444,11 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" si="2"/>
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F28" s="1">
         <f>SUM($E$2:E28)</f>
-        <v>3.89</v>
+        <v>3.8899999999999997</v>
       </c>
       <c r="G28" s="1">
         <f>D28*怪物经验!C28</f>
@@ -2983,7 +2473,7 @@
         <v>223440</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3001,7 +2491,7 @@
       </c>
       <c r="E29" s="1">
         <f t="shared" si="2"/>
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F29" s="1">
         <f>SUM($E$2:E29)</f>
@@ -3030,7 +2520,7 @@
         <v>240220</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="30" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3051,7 +2541,7 @@
       </c>
       <c r="F30" s="1">
         <f>SUM($E$2:E30)</f>
-        <v>4.53</v>
+        <v>4.5299999999999994</v>
       </c>
       <c r="G30" s="1">
         <f>D30*怪物经验!C30</f>
@@ -3076,7 +2566,7 @@
         <v>299800</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3098,7 +2588,7 @@
       </c>
       <c r="F31" s="1">
         <f>SUM($E$2:E31)</f>
-        <v>4.89</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="G31" s="1">
         <f>D31*怪物经验!C31</f>
@@ -3123,7 +2613,7 @@
         <v>432680</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="32" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3170,7 +2660,7 @@
         <v>456520</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="33" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3217,7 +2707,7 @@
         <v>480380</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="34" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3239,7 +2729,7 @@
       </c>
       <c r="F34" s="1">
         <f>SUM($E$2:E34)</f>
-        <v>6.03</v>
+        <v>6.0299999999999994</v>
       </c>
       <c r="G34" s="1">
         <f>D34*怪物经验!C34</f>
@@ -3264,7 +2754,7 @@
         <v>504840</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="35" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3311,7 +2801,7 @@
         <v>529900</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="36" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3358,7 +2848,7 @@
         <v>555560</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="37" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3405,7 +2895,7 @@
         <v>582580</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="38" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3427,7 +2917,7 @@
       </c>
       <c r="F38" s="1">
         <f>SUM($E$2:E38)</f>
-        <v>7.69</v>
+        <v>7.6899999999999995</v>
       </c>
       <c r="G38" s="1">
         <f>D38*怪物经验!C38</f>
@@ -3452,7 +2942,7 @@
         <v>609470</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="39" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3474,7 +2964,7 @@
       </c>
       <c r="F39" s="1">
         <f>SUM($E$2:E39)</f>
-        <v>8.13</v>
+        <v>8.129999999999999</v>
       </c>
       <c r="G39" s="1">
         <f>D39*怪物经验!C39</f>
@@ -3499,7 +2989,7 @@
         <v>636960</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="40" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3520,7 +3010,7 @@
       </c>
       <c r="F40" s="1">
         <f>SUM($E$2:E40)</f>
-        <v>8.63</v>
+        <v>8.629999999999999</v>
       </c>
       <c r="G40" s="1">
         <f>D40*怪物经验!C40</f>
@@ -3545,7 +3035,7 @@
         <v>738000</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="41" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3567,7 +3057,7 @@
       </c>
       <c r="F41" s="1">
         <f>SUM($E$2:E41)</f>
-        <v>9.14</v>
+        <v>9.1399999999999988</v>
       </c>
       <c r="G41" s="1">
         <f>D41*怪物经验!C41</f>
@@ -3592,7 +3082,7 @@
         <v>928840</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="42" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3614,7 +3104,7 @@
       </c>
       <c r="F42" s="1">
         <f>SUM($E$2:E42)</f>
-        <v>9.66</v>
+        <v>9.6599999999999984</v>
       </c>
       <c r="G42" s="1">
         <f>D42*怪物经验!C42</f>
@@ -3639,7 +3129,7 @@
         <v>962780</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="43" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3661,7 +3151,7 @@
       </c>
       <c r="F43" s="1">
         <f>SUM($E$2:E43)</f>
-        <v>10.19</v>
+        <v>10.189999999999998</v>
       </c>
       <c r="G43" s="1">
         <f>D43*怪物经验!C43</f>
@@ -3686,7 +3176,7 @@
         <v>997320</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="44" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3708,7 +3198,7 @@
       </c>
       <c r="F44" s="1">
         <f>SUM($E$2:E44)</f>
-        <v>10.73</v>
+        <v>10.729999999999997</v>
       </c>
       <c r="G44" s="1">
         <f>D44*怪物经验!C44</f>
@@ -3733,7 +3223,7 @@
         <v>1032460</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="45" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3751,11 +3241,11 @@
       </c>
       <c r="E45" s="1">
         <f t="shared" si="2"/>
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F45" s="1">
         <f>SUM($E$2:E45)</f>
-        <v>11.28</v>
+        <v>11.279999999999998</v>
       </c>
       <c r="G45" s="1">
         <f>D45*怪物经验!C45</f>
@@ -3774,13 +3264,13 @@
       </c>
       <c r="K45" s="1">
         <f t="shared" si="5"/>
-        <v>508200</v>
+        <v>508200.00000000006</v>
       </c>
       <c r="M45" s="13">
         <v>1068200</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="46" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3798,11 +3288,11 @@
       </c>
       <c r="E46" s="1">
         <f t="shared" si="2"/>
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F46" s="1">
         <f>SUM($E$2:E46)</f>
-        <v>11.84</v>
+        <v>11.839999999999998</v>
       </c>
       <c r="G46" s="1">
         <f>D46*怪物经验!C46</f>
@@ -3821,13 +3311,13 @@
       </c>
       <c r="K46" s="1">
         <f t="shared" si="5"/>
-        <v>517440</v>
+        <v>517440.00000000006</v>
       </c>
       <c r="M46" s="13">
         <v>1104540</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="47" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3845,11 +3335,11 @@
       </c>
       <c r="E47" s="1">
         <f t="shared" si="2"/>
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F47" s="1">
         <f>SUM($E$2:E47)</f>
-        <v>12.41</v>
+        <v>12.409999999999998</v>
       </c>
       <c r="G47" s="1">
         <f>D47*怪物经验!C47</f>
@@ -3868,13 +3358,13 @@
       </c>
       <c r="K47" s="1">
         <f t="shared" si="5"/>
-        <v>526680</v>
+        <v>526679.99999999988</v>
       </c>
       <c r="M47" s="13">
         <v>1141480</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="48" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3892,11 +3382,11 @@
       </c>
       <c r="E48" s="1">
         <f t="shared" si="2"/>
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F48" s="1">
         <f>SUM($E$2:E48)</f>
-        <v>12.99</v>
+        <v>12.989999999999998</v>
       </c>
       <c r="G48" s="1">
         <f>D48*怪物经验!C48</f>
@@ -3915,13 +3405,13 @@
       </c>
       <c r="K48" s="1">
         <f t="shared" si="5"/>
-        <v>535920</v>
+        <v>535919.99999999988</v>
       </c>
       <c r="M48" s="13">
         <v>1179020</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="49" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3943,7 +3433,7 @@
       </c>
       <c r="F49" s="1">
         <f>SUM($E$2:E49)</f>
-        <v>13.58</v>
+        <v>13.579999999999998</v>
       </c>
       <c r="G49" s="1">
         <f>D49*怪物经验!C49</f>
@@ -3968,7 +3458,7 @@
         <v>1217160</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="50" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3989,7 +3479,7 @@
       </c>
       <c r="F50" s="1">
         <f>SUM($E$2:E50)</f>
-        <v>14.28</v>
+        <v>14.279999999999998</v>
       </c>
       <c r="G50" s="1">
         <f>D50*怪物经验!C50</f>
@@ -4008,13 +3498,13 @@
       </c>
       <c r="K50" s="1">
         <f t="shared" si="5"/>
-        <v>646800</v>
+        <v>646799.99999999988</v>
       </c>
       <c r="M50" s="13">
         <v>1463300</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="51" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4036,7 +3526,7 @@
       </c>
       <c r="F51" s="1">
         <f>SUM($E$2:E51)</f>
-        <v>15.03</v>
+        <v>15.029999999999998</v>
       </c>
       <c r="G51" s="1">
         <f>D51*怪物经验!C51</f>
@@ -4061,7 +3551,7 @@
         <v>1826050</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="52" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4083,7 +3573,7 @@
       </c>
       <c r="F52" s="1">
         <f>SUM($E$2:E52)</f>
-        <v>15.83</v>
+        <v>15.829999999999998</v>
       </c>
       <c r="G52" s="1">
         <f>D52*怪物经验!C52</f>
@@ -4108,7 +3598,7 @@
         <v>1971300</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="53" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4130,7 +3620,7 @@
       </c>
       <c r="F53" s="1">
         <f>SUM($E$2:E53)</f>
-        <v>16.73</v>
+        <v>16.729999999999997</v>
       </c>
       <c r="G53" s="1">
         <f>D53*怪物经验!C53</f>
@@ -4155,7 +3645,7 @@
         <v>2119550</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="54" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4168,7 +3658,7 @@
         <v>2521700</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" ref="D54:D61" si="6">D53+100</f>
+        <f t="shared" ref="D54:D58" si="6">D53+100</f>
         <v>1000</v>
       </c>
       <c r="E54" s="1">
@@ -4177,7 +3667,7 @@
       </c>
       <c r="F54" s="1">
         <f>SUM($E$2:E54)</f>
-        <v>17.73</v>
+        <v>17.729999999999997</v>
       </c>
       <c r="G54" s="1">
         <f>D54*怪物经验!C54</f>
@@ -4202,7 +3692,7 @@
         <v>2270800</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="55" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4220,11 +3710,11 @@
       </c>
       <c r="E55" s="1">
         <f t="shared" si="2"/>
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F55" s="1">
         <f>SUM($E$2:E55)</f>
-        <v>18.83</v>
+        <v>18.829999999999998</v>
       </c>
       <c r="G55" s="1">
         <f>D55*怪物经验!C55</f>
@@ -4249,7 +3739,7 @@
         <v>2425050</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="56" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4271,7 +3761,7 @@
       </c>
       <c r="F56" s="1">
         <f>SUM($E$2:E56)</f>
-        <v>20.03</v>
+        <v>20.029999999999998</v>
       </c>
       <c r="G56" s="1">
         <f>D56*怪物经验!C56</f>
@@ -4296,7 +3786,7 @@
         <v>2582300</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="57" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4343,7 +3833,7 @@
         <v>2742550</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="58" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4365,7 +3855,7 @@
       </c>
       <c r="F58" s="1">
         <f>SUM($E$2:E58)</f>
-        <v>22.73</v>
+        <v>22.729999999999997</v>
       </c>
       <c r="G58" s="1">
         <f>D58*怪物经验!C58</f>
@@ -4390,7 +3880,7 @@
         <v>2905800</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="59" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4437,7 +3927,7 @@
         <v>3072050</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="60" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4484,7 +3974,7 @@
         <v>3241300</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="61" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4531,7 +4021,7 @@
         <v>3413550</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="62" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4578,7 +4068,7 @@
         <v>4825850</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="63" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4625,7 +4115,7 @@
         <v>6268150</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="64" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4647,7 +4137,7 @@
       </c>
       <c r="F64" s="1">
         <f>SUM($E$2:E64)</f>
-        <v>38.23</v>
+        <v>38.229999999999997</v>
       </c>
       <c r="G64" s="1">
         <f>D64*怪物经验!C64</f>
@@ -4672,7 +4162,7 @@
         <v>7740450</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="65" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4719,7 +4209,7 @@
         <v>9242750</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="66" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4766,7 +4256,7 @@
         <v>10775050</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="67" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4813,7 +4303,7 @@
         <v>13770250</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="68" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4835,7 +4325,7 @@
       </c>
       <c r="F68" s="1">
         <f>SUM($E$2:E68)</f>
-        <v>71.73</v>
+        <v>71.72999999999999</v>
       </c>
       <c r="G68" s="1">
         <f>D68*怪物经验!C68</f>
@@ -4860,7 +4350,7 @@
         <v>16841750</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="69" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4882,7 +4372,7 @@
       </c>
       <c r="F69" s="1">
         <f>SUM($E$2:E69)</f>
-        <v>87.73</v>
+        <v>87.72999999999999</v>
       </c>
       <c r="G69" s="1">
         <f>D69*怪物经验!C69</f>
@@ -4907,7 +4397,7 @@
         <v>21452750</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="70" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4928,7 +4418,7 @@
       </c>
       <c r="F70" s="1">
         <f>SUM($E$2:E70)</f>
-        <v>107.73</v>
+        <v>107.72999999999999</v>
       </c>
       <c r="G70" s="1">
         <f>D70*怪物经验!C70</f>
@@ -4953,7 +4443,7 @@
         <v>29890000</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="71" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4974,7 +4464,7 @@
       </c>
       <c r="F71" s="1">
         <f>SUM($E$2:E71)</f>
-        <v>132.73</v>
+        <v>132.72999999999999</v>
       </c>
       <c r="G71" s="1">
         <f>D71*怪物经验!C71</f>
@@ -5000,29 +4490,674 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA2BE89-34EE-4D38-9CA3-E293CA75CE55}">
+  <dimension ref="B1:Y30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" customWidth="1"/>
+    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="1">
+        <v>5</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="1">
+        <v>5</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <f>G3*$N$2*10</f>
+        <v>750</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E3" s="1">
+        <f>D3*C3</f>
+        <v>525</v>
+      </c>
+      <c r="F3" s="1">
+        <f>ROUND(E3,-2)</f>
+        <v>500</v>
+      </c>
+      <c r="G3" s="1">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1">
+        <f>F3/$N$3</f>
+        <v>25</v>
+      </c>
+      <c r="I3" s="1">
+        <f>H3/$N$4</f>
+        <v>5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>200000</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="1">
+        <v>20</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="1">
+        <v>10</v>
+      </c>
+      <c r="T3" s="1">
+        <v>50</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
+        <v>100</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1">
+        <f>X3*W3</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C12" si="0">G4*$N$2*10</f>
+        <v>900</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E12" si="1">D4*C4</f>
+        <v>1035</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F12" si="2">ROUND(E4,-2)</f>
+        <v>1000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H12" si="3">F4/$N$3</f>
+        <v>50</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I12" si="4">H4/$N$4</f>
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
+        <f>J3+20000</f>
+        <v>220000</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="1">
+        <v>5</v>
+      </c>
+      <c r="V4" s="1">
+        <v>2</v>
+      </c>
+      <c r="W4" s="1">
+        <v>100</v>
+      </c>
+      <c r="X4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="1">
+        <f t="shared" ref="Y4:Y12" si="5">X4*W4</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>1785</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="2"/>
+        <v>1800</v>
+      </c>
+      <c r="G5" s="1">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" ref="J5:J8" si="6">J4+20000</f>
+        <v>240000</v>
+      </c>
+      <c r="V5" s="1">
+        <v>3</v>
+      </c>
+      <c r="W5" s="1">
+        <v>100</v>
+      </c>
+      <c r="X5" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="D6" s="1">
+        <f>D5+0.6</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>2760</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>2800</v>
+      </c>
+      <c r="G6" s="1">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="6"/>
+        <v>260000</v>
+      </c>
+      <c r="V6" s="1">
+        <v>4</v>
+      </c>
+      <c r="W6" s="1">
+        <v>100</v>
+      </c>
+      <c r="X6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>1350</v>
+      </c>
+      <c r="D7" s="1">
+        <f>D6+0.65</f>
+        <v>2.9499999999999997</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>3982.4999999999995</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="J7" s="1">
+        <f>J6+20000</f>
+        <v>280000</v>
+      </c>
+      <c r="V7" s="1">
+        <v>5</v>
+      </c>
+      <c r="W7" s="1">
+        <v>100</v>
+      </c>
+      <c r="X7" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="5"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="D8" s="1">
+        <f>D7+0.7</f>
+        <v>3.6499999999999995</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>5474.9999999999991</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="2"/>
+        <v>5500</v>
+      </c>
+      <c r="G8" s="1">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="3"/>
+        <v>275</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="6"/>
+        <v>300000</v>
+      </c>
+      <c r="V8" s="1">
+        <v>6</v>
+      </c>
+      <c r="W8" s="1">
+        <v>100</v>
+      </c>
+      <c r="X8" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="5"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>1650</v>
+      </c>
+      <c r="D9" s="1">
+        <f>D8+0.9</f>
+        <v>4.55</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>7507.5</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="2"/>
+        <v>7500</v>
+      </c>
+      <c r="G9" s="1">
+        <v>33</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="J9" s="1">
+        <f>J8+20000</f>
+        <v>320000</v>
+      </c>
+      <c r="V9" s="1">
+        <v>7</v>
+      </c>
+      <c r="W9" s="1">
+        <v>100</v>
+      </c>
+      <c r="X9" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" si="5"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="D10" s="1">
+        <f>D9+1</f>
+        <v>5.55</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>9990</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>36</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J10" s="1">
+        <f>J9+20000</f>
+        <v>340000</v>
+      </c>
+      <c r="V10" s="1">
+        <v>8</v>
+      </c>
+      <c r="W10" s="1">
+        <v>100</v>
+      </c>
+      <c r="X10" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+      <c r="D11" s="1">
+        <f>D10+1.3</f>
+        <v>6.85</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>13015</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>13000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>38</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" ref="J11:J12" si="7">J10+30000</f>
+        <v>370000</v>
+      </c>
+      <c r="V11" s="1">
+        <v>9</v>
+      </c>
+      <c r="W11" s="1">
+        <v>100</v>
+      </c>
+      <c r="X11" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y11" s="1">
+        <f t="shared" si="5"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="D12" s="1">
+        <f>D11+1.4</f>
+        <v>8.25</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>16500</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="2"/>
+        <v>16500</v>
+      </c>
+      <c r="G12" s="1">
+        <v>40</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="3"/>
+        <v>825</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="4"/>
+        <v>165</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="7"/>
+        <v>400000</v>
+      </c>
+      <c r="V12" s="1">
+        <v>10</v>
+      </c>
+      <c r="W12" s="1">
+        <v>100</v>
+      </c>
+      <c r="X12" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="1">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="1">
+        <f>SUM(D3:D11)</f>
+        <v>29.4</v>
+      </c>
+      <c r="X14" s="1">
+        <f>SUM(X3:X12)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X15" s="1">
+        <f>X14*4</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -5030,7 +5165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -5038,7 +5173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -5046,7 +5181,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -5054,7 +5189,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -5062,7 +5197,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -5070,7 +5205,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>7</v>
       </c>
@@ -5078,7 +5213,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -5086,7 +5221,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>9</v>
       </c>
@@ -5094,7 +5229,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -5103,28 +5238,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="3" width="9" style="4"/>
     <col min="4" max="7" width="11.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -5156,7 +5290,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5201,7 +5335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5247,7 +5381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5293,7 +5427,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5339,7 +5473,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5385,7 +5519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5431,7 +5565,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5477,7 +5611,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5523,7 +5657,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5569,7 +5703,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5615,7 +5749,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5661,7 +5795,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5707,7 +5841,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5753,7 +5887,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5799,7 +5933,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5845,7 +5979,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="17" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5891,7 +6025,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5937,7 +6071,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="19" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5983,7 +6117,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="20" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -6029,7 +6163,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="21" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -6075,7 +6209,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="22" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -6121,7 +6255,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="23" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -6167,7 +6301,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="24" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -6213,7 +6347,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="25" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -6259,7 +6393,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="26" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -6305,7 +6439,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="27" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -6351,7 +6485,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="28" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -6397,7 +6531,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="29" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -6443,7 +6577,7 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="30" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -6489,7 +6623,7 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="31" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -6535,7 +6669,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="32" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -6581,7 +6715,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="33" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -6627,7 +6761,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="34" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -6673,7 +6807,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="35" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -6719,7 +6853,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="36" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -6765,7 +6899,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="37" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6811,7 +6945,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="38" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6857,7 +6991,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="39" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6903,7 +7037,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="40" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6949,7 +7083,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="41" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6995,7 +7129,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="42" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -7041,7 +7175,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="43" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -7087,7 +7221,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="44" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -7133,7 +7267,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="45" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -7179,7 +7313,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="46" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -7225,7 +7359,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="47" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -7271,7 +7405,7 @@
         <v>15200</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="48" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7317,7 +7451,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="49" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7363,7 +7497,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="50" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7409,7 +7543,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="51" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -7455,7 +7589,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="52" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -7501,7 +7635,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="53" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -7547,7 +7681,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="54" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -7593,7 +7727,7 @@
         <v>18800</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="55" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -7639,7 +7773,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="56" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -7685,7 +7819,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="57" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -7731,7 +7865,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="58" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -7777,7 +7911,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="59" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -7823,7 +7957,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="60" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -7869,7 +8003,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="61" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -7915,7 +8049,7 @@
         <v>21200</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="62" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -7961,7 +8095,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="63" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -8007,7 +8141,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="64" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -8053,7 +8187,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="65" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -8099,7 +8233,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="66" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -8145,7 +8279,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="67" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -8191,7 +8325,7 @@
         <v>24800</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="68" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -8237,7 +8371,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="69" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -8283,7 +8417,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="70" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -8329,7 +8463,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="71" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -8375,7 +8509,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -8402,7 +8536,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="73" spans="11:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K73" s="8">
         <v>55</v>
       </c>
@@ -8422,7 +8556,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="74" spans="11:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K74" s="8">
         <v>56</v>
       </c>
@@ -8442,7 +8576,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="75" spans="11:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K75" s="8">
         <v>58</v>
       </c>
@@ -8462,7 +8596,7 @@
         <v>28400</v>
       </c>
     </row>
-    <row r="76" spans="11:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K76" s="8">
         <v>60</v>
       </c>
@@ -8483,21 +8617,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="4"/>
     <col min="4" max="5" width="15.125" style="5" customWidth="1"/>
@@ -8506,7 +8639,7 @@
     <col min="10" max="10" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -8526,7 +8659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8555,7 +8688,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8584,7 +8717,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -8613,7 +8746,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8642,7 +8775,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8671,7 +8804,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8700,7 +8833,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8729,7 +8862,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8758,7 +8891,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -8787,7 +8920,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -8816,7 +8949,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -8845,7 +8978,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -8874,7 +9007,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -8903,7 +9036,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -8932,7 +9065,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -8961,7 +9094,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -8990,7 +9123,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -9019,7 +9152,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="19" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -9048,7 +9181,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="20" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -9077,7 +9210,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -9106,7 +9239,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -9135,7 +9268,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="23" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -9164,7 +9297,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="24" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -9193,7 +9326,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="25" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -9222,7 +9355,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="26" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -9251,7 +9384,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="27" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -9280,7 +9413,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="28" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -9309,7 +9442,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="29" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -9338,7 +9471,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="30" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -9367,7 +9500,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="31" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -9396,7 +9529,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="32" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -9425,7 +9558,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="33" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -9454,7 +9587,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="34" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -9483,7 +9616,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="35" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -9505,7 +9638,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="36" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -9527,7 +9660,7 @@
         <v>6570</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="37" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -9549,7 +9682,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="38" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -9571,7 +9704,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="39" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -9593,7 +9726,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="40" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -9615,7 +9748,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="41" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -9637,7 +9770,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="42" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -9659,7 +9792,7 @@
         <v>9100</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="43" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -9681,7 +9814,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="44" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -9703,7 +9836,7 @@
         <v>9700</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="45" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -9725,7 +9858,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="46" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -9747,7 +9880,7 @@
         <v>10300</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="47" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -9769,7 +9902,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="48" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -9791,7 +9924,7 @@
         <v>10900</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="49" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -9813,7 +9946,7 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="50" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -9835,7 +9968,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="51" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -9857,7 +9990,7 @@
         <v>11800</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="52" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -9879,7 +10012,7 @@
         <v>12100</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="53" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -9901,7 +10034,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="54" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -9923,7 +10056,7 @@
         <v>12700</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="55" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -9945,7 +10078,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="56" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -9967,7 +10100,7 @@
         <v>13300</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="57" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -9989,7 +10122,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="58" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -10011,7 +10144,7 @@
         <v>13900</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="59" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -10033,7 +10166,7 @@
         <v>14200</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="60" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -10055,7 +10188,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="61" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -10077,7 +10210,7 @@
         <v>14800</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="62" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -10099,7 +10232,7 @@
         <v>15100</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="63" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -10121,7 +10254,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="64" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -10143,7 +10276,7 @@
         <v>15700</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="65" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -10165,7 +10298,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="66" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -10187,7 +10320,7 @@
         <v>16300</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="67" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -10209,7 +10342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="68" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -10231,7 +10364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="69" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -10253,7 +10386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="70" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -10275,7 +10408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="71" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -10297,7 +10430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="72" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -10319,7 +10452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="73" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -10341,7 +10474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="74" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -10363,7 +10496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="75" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -10385,7 +10518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="76" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -10407,7 +10540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="77" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -10429,7 +10562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="78" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -10451,7 +10584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="79" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -10473,7 +10606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="80" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -10495,7 +10628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="81" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -10517,7 +10650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="82" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -10539,7 +10672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="83" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -10561,7 +10694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="84" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -10583,7 +10716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="85" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -10605,7 +10738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="86" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -10627,7 +10760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="87" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -10649,7 +10782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="88" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -10671,7 +10804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="89" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -10693,7 +10826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="90" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -10715,7 +10848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="91" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -10737,7 +10870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="92" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -10759,7 +10892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="93" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -10781,7 +10914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="94" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -10803,7 +10936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="95" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -10825,7 +10958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="96" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -10847,7 +10980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="97" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -10869,7 +11002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="98" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -10891,7 +11024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="99" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -10913,7 +11046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="100" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -10935,7 +11068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="101" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -10957,24 +11090,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="103" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="102" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="13" style="2" customWidth="1"/>
@@ -10984,7 +11116,7 @@
     <col min="16" max="16" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:9">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -11004,7 +11136,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>20</v>
       </c>
@@ -11044,7 +11176,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>30</v>
       </c>
@@ -11084,7 +11216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:9">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>40</v>
       </c>
@@ -11118,7 +11250,7 @@
         <v>184800</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:9">
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>50</v>
       </c>
@@ -11152,483 +11284,483 @@
         <v>247800</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="25" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="26" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="31" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="40" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="48" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="49" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="50" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="51" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="52" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="53" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="54" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="55" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="56" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="57" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="58" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="59" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="60" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="61" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="62" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="63" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="64" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="65" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="66" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="67" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="68" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="69" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="70" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="71" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
     </row>
-    <row r="72" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="72" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="73" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="74" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="75" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="76" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="77" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="78" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="79" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="80" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
-    <row r="81" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="81" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
     </row>
-    <row r="82" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="82" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
     </row>
-    <row r="83" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="83" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
     </row>
-    <row r="84" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="84" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="85" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="86" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="87" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="88" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="89" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="90" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
-    <row r="91" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="91" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="92" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="93" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="94" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="95" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
-    <row r="96" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="96" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
     </row>
-    <row r="97" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="97" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="98" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
     </row>
-    <row r="99" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="99" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
-    <row r="100" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="100" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WeiJingShuZhi/经验表.xlsx
+++ b/WeiJingShuZhi/经验表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364698D1-146F-4C38-B06F-020FB582E807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F885A93-D1F6-41CB-9631-0F2C95DC07B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>等级</t>
   </si>
@@ -246,6 +246,30 @@
   </si>
   <si>
     <t>总天数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>修炼能力</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔防</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4500,8 +4524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA2BE89-34EE-4D38-9CA3-E293CA75CE55}">
   <dimension ref="B1:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5099,43 +5123,284 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M16" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>50</v>
+      </c>
+      <c r="S17" s="1">
+        <f>P17*6</f>
+        <v>300</v>
+      </c>
+      <c r="U17" s="1" t="str">
+        <f>"100403;"&amp;P17</f>
+        <v>100403;50</v>
+      </c>
+      <c r="X17" s="1" t="str">
+        <f>"100203;"&amp;S17</f>
+        <v>100203;300</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" s="1">
+        <v>2</v>
+      </c>
+      <c r="P18" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="1">
+        <f>P18-P17</f>
+        <v>50</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" ref="S18:S26" si="8">P18*6</f>
+        <v>600</v>
+      </c>
+      <c r="U18" s="1" t="str">
+        <f t="shared" ref="U18:U26" si="9">"100403;"&amp;P18</f>
+        <v>100403;100</v>
+      </c>
+      <c r="X18" s="1" t="str">
+        <f t="shared" ref="X18:X26" si="10">"100203;"&amp;S18</f>
+        <v>100203;600</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" s="1">
+        <v>3</v>
+      </c>
+      <c r="P19" s="1">
+        <v>200</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" ref="Q19:Q26" si="11">P19-P18</f>
+        <v>100</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="8"/>
+        <v>1200</v>
+      </c>
+      <c r="U19" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>100403;200</v>
+      </c>
+      <c r="X19" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>100203;1200</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" s="1">
+        <v>4</v>
+      </c>
+      <c r="P20" s="1">
+        <v>350</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="8"/>
+        <v>2100</v>
+      </c>
+      <c r="U20" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>100403;350</v>
+      </c>
+      <c r="X20" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>100203;2100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21" s="1">
+        <v>5</v>
+      </c>
+      <c r="P21" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="8"/>
+        <v>3000</v>
+      </c>
+      <c r="U21" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>100403;500</v>
+      </c>
+      <c r="X21" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>100203;3000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="O22" s="1">
+        <v>6</v>
+      </c>
+      <c r="P22" s="1">
+        <v>700</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="8"/>
+        <v>4200</v>
+      </c>
+      <c r="U22" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>100403;700</v>
+      </c>
+      <c r="X22" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>100203;4200</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O23" s="1">
+        <v>7</v>
+      </c>
+      <c r="P23" s="1">
+        <v>900</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="8"/>
+        <v>5400</v>
+      </c>
+      <c r="U23" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>100403;900</v>
+      </c>
+      <c r="X23" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>100203;5400</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O24" s="1">
+        <v>8</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1200</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="8"/>
+        <v>7200</v>
+      </c>
+      <c r="U24" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>100403;1200</v>
+      </c>
+      <c r="X24" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>100203;7200</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O25" s="1">
+        <v>9</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1500</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="8"/>
+        <v>9000</v>
+      </c>
+      <c r="U25" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>100403;1500</v>
+      </c>
+      <c r="X25" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>100203;9000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O26" s="1">
+        <v>10</v>
+      </c>
+      <c r="P26" s="1">
+        <v>1800</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="8"/>
+        <v>10800</v>
+      </c>
+      <c r="U26" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>100403;1800</v>
+      </c>
+      <c r="X26" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>100203;10800</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WeiJingShuZhi/经验表.xlsx
+++ b/WeiJingShuZhi/经验表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F885A93-D1F6-41CB-9631-0F2C95DC07B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E950476-A8B4-450B-A4A6-DB51563583B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
   <si>
     <t>等级</t>
   </si>
@@ -272,6 +272,58 @@
     <t>法术</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>家族捐献</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏爆率</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对怪伤害加成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-10</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石捐献</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金捐献</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银捐献</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜捐献</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者捐献</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱心捐献</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5%暴击</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -412,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -452,6 +504,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4522,15 +4580,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA2BE89-34EE-4D38-9CA3-E293CA75CE55}">
-  <dimension ref="B1:Y30"/>
+  <dimension ref="B1:Y60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.375" customWidth="1"/>
     <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
@@ -5399,8 +5458,129 @@
     </row>
     <row r="27" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>30</v>
+      </c>
+      <c r="E30" s="1">
+        <v>30</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>20</v>
+      </c>
+      <c r="E31" s="1">
+        <v>25</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>15</v>
+      </c>
+      <c r="E32" s="1">
+        <v>20</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="1">
+        <v>10</v>
+      </c>
+      <c r="E33" s="1">
+        <v>15</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>5</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WeiJingShuZhi/经验表.xlsx
+++ b/WeiJingShuZhi/经验表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E950476-A8B4-450B-A4A6-DB51563583B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98608F3D-4F7C-4187-A916-F43A999FD672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
   <si>
     <t>等级</t>
   </si>
@@ -324,6 +324,14 @@
     <t>5%暴击</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>捐献金额的50%累计</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>获胜家族名字带(冠军)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -464,7 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -511,6 +519,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4583,7 +4594,7 @@
   <dimension ref="B1:Y60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5456,7 +5467,11 @@
         <v>100203;10800</v>
       </c>
     </row>
-    <row r="27" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J27" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="28" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
@@ -5485,6 +5500,9 @@
       <c r="H30" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="K30" s="1">
+        <v>5000000</v>
+      </c>
     </row>
     <row r="31" spans="2:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
@@ -5513,8 +5531,12 @@
       <c r="F32" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="33" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K32" s="1">
+        <f>K30*0.8*0.6/20</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="15" t="s">
         <v>75</v>
       </c>
@@ -5528,7 +5550,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="16" t="s">
         <v>76</v>
       </c>
@@ -5542,7 +5564,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>77</v>
       </c>
@@ -5556,19 +5578,23 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="3:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J36" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/WeiJingShuZhi/经验表.xlsx
+++ b/WeiJingShuZhi/经验表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98608F3D-4F7C-4187-A916-F43A999FD672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B32170-C7A4-4A02-AD8F-7CF2F454C00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4594,7 +4594,7 @@
   <dimension ref="B1:Y60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E30" s="1">
         <v>30</v>
@@ -5569,7 +5569,7 @@
         <v>77</v>
       </c>
       <c r="D35" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E35" s="1">
         <v>5</v>

--- a/WeiJingShuZhi/经验表.xlsx
+++ b/WeiJingShuZhi/经验表.xlsx
@@ -1,34 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B32170-C7A4-4A02-AD8F-7CF2F454C00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="14085" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
-    <sheet name="家族经验" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
-    <sheet name="怪物经验" sheetId="3" r:id="rId4"/>
-    <sheet name="任务经验" sheetId="4" r:id="rId5"/>
-    <sheet name="组队副本" sheetId="5" r:id="rId6"/>
+    <sheet name="家族经验" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="怪物经验" sheetId="4" r:id="rId4"/>
+    <sheet name="任务经验" sheetId="5" r:id="rId5"/>
+    <sheet name="组队副本" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
   <si>
     <t>等级</t>
   </si>
@@ -99,6 +93,150 @@
     <t>总</t>
   </si>
   <si>
+    <t>每天经验产出</t>
+  </si>
+  <si>
+    <t>系数</t>
+  </si>
+  <si>
+    <t>经验修</t>
+  </si>
+  <si>
+    <t>人员上限</t>
+  </si>
+  <si>
+    <t>累计捐献次数</t>
+  </si>
+  <si>
+    <t>捐献满人次</t>
+  </si>
+  <si>
+    <t>捐献金币</t>
+  </si>
+  <si>
+    <t>单次任务经验</t>
+  </si>
+  <si>
+    <t>’2-8</t>
+  </si>
+  <si>
+    <t>家族捐献</t>
+  </si>
+  <si>
+    <t>家族等级</t>
+  </si>
+  <si>
+    <t>每天捐献</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>单次捐献</t>
+  </si>
+  <si>
+    <t>‘10-30</t>
+  </si>
+  <si>
+    <t>每天捐献上限</t>
+  </si>
+  <si>
+    <t>总天数</t>
+  </si>
+  <si>
+    <t>修炼能力</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>随机杀怪</t>
+  </si>
+  <si>
+    <t>魔防</t>
+  </si>
+  <si>
+    <t>随机要东西</t>
+  </si>
+  <si>
+    <t>法术</t>
+  </si>
+  <si>
+    <t>捐献金额的50%累计</t>
+  </si>
+  <si>
+    <t>游戏爆率</t>
+  </si>
+  <si>
+    <t>对怪伤害加成</t>
+  </si>
+  <si>
+    <t>王者捐献</t>
+  </si>
+  <si>
+    <t>5%暴击</t>
+  </si>
+  <si>
+    <t>钻石捐献</t>
+  </si>
+  <si>
+    <t>黄金捐献</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>白银捐献</t>
+  </si>
+  <si>
+    <t>6-10</t>
+  </si>
+  <si>
+    <t>青铜捐献</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>爱心捐献</t>
+  </si>
+  <si>
+    <t>获胜家族名字带(冠军)</t>
+  </si>
+  <si>
+    <t>玩家血量</t>
+  </si>
+  <si>
+    <t>优化</t>
+  </si>
+  <si>
+    <t>慢性恢复</t>
+  </si>
+  <si>
+    <t>立即恢复1200点生命</t>
+  </si>
+  <si>
+    <t>立即恢复2400点生命</t>
+  </si>
+  <si>
+    <t>立即恢复4000点生命</t>
+  </si>
+  <si>
+    <t>立即恢复6000点生命</t>
+  </si>
+  <si>
+    <t>立即恢复8000点生命</t>
+  </si>
+  <si>
     <t>世界等级</t>
   </si>
   <si>
@@ -164,180 +302,18 @@
   <si>
     <t>副本BOSS数量</t>
   </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员上限</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单次任务经验</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单次捐献</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天经验产出</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验修</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计捐献次数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天捐献上限</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘10-30</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>’2-8</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>捐献金币</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>捐献满人次</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机杀怪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机要东西</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>家族捐献</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>家族等级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天捐献</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>总天数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>修炼能力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔防</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>家族捐献</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏爆率</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>对怪伤害加成</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-10</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石捐献</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金捐献</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>白银捐献</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>青铜捐献</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>王者捐献</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱心捐献</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>5%暴击</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>捐献金额的50%累计</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>获胜家族名字带(冠军)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,15 +325,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -365,7 +332,6 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -373,15 +339,20 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -389,19 +360,155 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,12 +535,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14993743705557422"/>
+        <fgColor theme="0" tint="-0.149937437055574"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -461,18 +754,275 @@
       <right style="hair">
         <color theme="1" tint="0.499984740745262"/>
       </right>
+      <top style="thin">
+        <color theme="4" tint="0.399151585436567"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
       <top style="hair">
         <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -480,69 +1030,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 6" xfId="1" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="常规 6" xfId="13"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="总经验表"/>
@@ -1144,53 +1733,53 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:W71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="11.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13" style="3" customWidth="1"/>
     <col min="11" max="11" width="11.375" customWidth="1"/>
     <col min="17" max="17" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:11">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1200,7 +1789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:18">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1217,11 +1806,11 @@
       </c>
       <c r="E2" s="1">
         <f>D2/$R$4</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="F2" s="1">
         <f>SUM($E$2:E2)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="G2" s="1">
         <f>D2*怪物经验!C2</f>
@@ -1241,7 +1830,7 @@
         <f>J2*E2</f>
         <v>0</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="14">
         <v>225</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -1251,7 +1840,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:18">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1272,7 +1861,7 @@
       </c>
       <c r="F3" s="1">
         <f>SUM($E$2:E3)</f>
-        <v>1.4999999999999999E-2</v>
+        <v>0.015</v>
       </c>
       <c r="G3" s="1">
         <f>D3*怪物经验!C3</f>
@@ -1292,7 +1881,7 @@
         <f t="shared" ref="K3:K15" si="3">J3*E3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="14">
         <v>500</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -1302,7 +1891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:18">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1323,7 +1912,7 @@
       </c>
       <c r="F4" s="1">
         <f>SUM($E$2:E4)</f>
-        <v>3.5000000000000003E-2</v>
+        <v>0.035</v>
       </c>
       <c r="G4" s="1">
         <f>D4*怪物经验!C4</f>
@@ -1343,7 +1932,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="14">
         <v>1125</v>
       </c>
       <c r="Q4" s="1" t="s">
@@ -1354,7 +1943,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:18">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1375,7 +1964,7 @@
       </c>
       <c r="F5" s="1">
         <f>SUM($E$2:E5)</f>
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="G5" s="1">
         <f>D5*怪物经验!C5</f>
@@ -1395,7 +1984,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="14">
         <v>1350</v>
       </c>
       <c r="Q5" s="1" t="s">
@@ -1405,7 +1994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1446,11 +2035,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="14">
         <v>2600</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1468,7 +2057,7 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="F7" s="1">
         <f>SUM($E$2:E7)</f>
@@ -1492,11 +2081,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="14">
         <v>4250</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:23">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1517,7 +2106,7 @@
       </c>
       <c r="F8" s="1">
         <f>SUM($E$2:E8)</f>
-        <v>0.29000000000000004</v>
+        <v>0.29</v>
       </c>
       <c r="G8" s="1">
         <f>D8*怪物经验!C8</f>
@@ -1537,7 +2126,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="14">
         <v>6600</v>
       </c>
       <c r="Q8" s="1" t="s">
@@ -1560,7 +2149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:23">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1602,7 +2191,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="14">
         <v>8400</v>
       </c>
       <c r="R9" s="1" t="s">
@@ -1621,7 +2210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:23">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1663,7 +2252,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="14">
         <v>10000</v>
       </c>
       <c r="R10" s="1" t="s">
@@ -1682,7 +2271,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:23">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1724,7 +2313,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="14">
         <v>12825</v>
       </c>
       <c r="R11" s="1" t="s">
@@ -1744,7 +2333,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:21">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1762,7 +2351,7 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="F12" s="1">
         <f>SUM($E$2:E12)</f>
@@ -1786,7 +2375,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="14">
         <v>16060</v>
       </c>
       <c r="T12" s="1" t="s">
@@ -1796,7 +2385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:21">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1818,7 +2407,7 @@
       </c>
       <c r="F13" s="1">
         <f>SUM($E$2:E13)</f>
-        <v>0.94000000000000006</v>
+        <v>0.94</v>
       </c>
       <c r="G13" s="1">
         <f>D13*怪物经验!C13</f>
@@ -1838,7 +2427,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="14">
         <v>19500</v>
       </c>
       <c r="T13" s="1" t="s">
@@ -1848,7 +2437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:21">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1870,7 +2459,7 @@
       </c>
       <c r="F14" s="1">
         <f>SUM($E$2:E14)</f>
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G14" s="1">
         <f>D14*怪物经验!C14</f>
@@ -1890,7 +2479,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="14">
         <v>22400</v>
       </c>
       <c r="S14" s="1">
@@ -1904,7 +2493,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1946,11 +2535,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="14">
         <v>27280</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:21">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1992,7 +2581,7 @@
         <f>J16*E16*$R$5</f>
         <v>29400</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="14">
         <v>47420</v>
       </c>
       <c r="T16" s="1" t="s">
@@ -2003,7 +2592,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2025,7 +2614,7 @@
       </c>
       <c r="F17" s="1">
         <f>SUM($E$2:E17)</f>
-        <v>1.4800000000000002</v>
+        <v>1.48</v>
       </c>
       <c r="G17" s="1">
         <f>D17*怪物经验!C17</f>
@@ -2046,11 +2635,11 @@
         <f t="shared" ref="K17:K71" si="5">J17*E17*$R$5</f>
         <v>32340</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="14">
         <v>54380</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2093,11 +2682,11 @@
         <f t="shared" si="5"/>
         <v>35280</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="14">
         <v>61740</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2140,11 +2729,11 @@
         <f t="shared" si="5"/>
         <v>38220</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="14">
         <v>69500</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2186,11 +2775,11 @@
         <f t="shared" si="5"/>
         <v>58800</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="14">
         <v>110300</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2233,11 +2822,11 @@
         <f t="shared" si="5"/>
         <v>61740</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="14">
         <v>122220</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2259,7 +2848,7 @@
       </c>
       <c r="F22" s="1">
         <f>SUM($E$2:E22)</f>
-        <v>2.3600000000000003</v>
+        <v>2.36</v>
       </c>
       <c r="G22" s="1">
         <f>D22*怪物经验!C22</f>
@@ -2280,11 +2869,11 @@
         <f t="shared" si="5"/>
         <v>64680</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="15">
         <v>135050</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2306,7 +2895,7 @@
       </c>
       <c r="F23" s="1">
         <f>SUM($E$2:E23)</f>
-        <v>2.5900000000000003</v>
+        <v>2.59</v>
       </c>
       <c r="G23" s="1">
         <f>D23*怪物经验!C23</f>
@@ -2327,11 +2916,11 @@
         <f t="shared" si="5"/>
         <v>67620</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="15">
         <v>148200</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2374,11 +2963,11 @@
         <f t="shared" si="5"/>
         <v>70560</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="15">
         <v>161950</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2421,11 +3010,11 @@
         <f t="shared" si="5"/>
         <v>73500</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M25" s="15">
         <v>176300</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2468,11 +3057,11 @@
         <f t="shared" si="5"/>
         <v>76440</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="15">
         <v>191250</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2513,13 +3102,13 @@
       </c>
       <c r="K27" s="1">
         <f t="shared" si="5"/>
-        <v>79380.000000000015</v>
-      </c>
-      <c r="M27" s="13">
+        <v>79380</v>
+      </c>
+      <c r="M27" s="15">
         <v>207260</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2537,11 +3126,11 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" si="2"/>
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="F28" s="1">
         <f>SUM($E$2:E28)</f>
-        <v>3.8899999999999997</v>
+        <v>3.89</v>
       </c>
       <c r="G28" s="1">
         <f>D28*怪物经验!C28</f>
@@ -2562,11 +3151,11 @@
         <f t="shared" si="5"/>
         <v>82320</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="15">
         <v>223440</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2584,7 +3173,7 @@
       </c>
       <c r="E29" s="1">
         <f t="shared" si="2"/>
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="F29" s="1">
         <f>SUM($E$2:E29)</f>
@@ -2609,11 +3198,11 @@
         <f t="shared" si="5"/>
         <v>85260</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M29" s="15">
         <v>240220</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2634,7 +3223,7 @@
       </c>
       <c r="F30" s="1">
         <f>SUM($E$2:E30)</f>
-        <v>4.5299999999999994</v>
+        <v>4.53</v>
       </c>
       <c r="G30" s="1">
         <f>D30*怪物经验!C30</f>
@@ -2655,11 +3244,11 @@
         <f t="shared" si="5"/>
         <v>102900</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M30" s="15">
         <v>299800</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2681,7 +3270,7 @@
       </c>
       <c r="F31" s="1">
         <f>SUM($E$2:E31)</f>
-        <v>4.8899999999999997</v>
+        <v>4.89</v>
       </c>
       <c r="G31" s="1">
         <f>D31*怪物经验!C31</f>
@@ -2702,11 +3291,11 @@
         <f t="shared" si="5"/>
         <v>219240</v>
       </c>
-      <c r="M31" s="13">
+      <c r="M31" s="15">
         <v>432680</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2749,11 +3338,11 @@
         <f t="shared" si="5"/>
         <v>225330</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M32" s="15">
         <v>456520</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2796,11 +3385,11 @@
         <f t="shared" si="5"/>
         <v>231420</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="15">
         <v>480380</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2822,7 +3411,7 @@
       </c>
       <c r="F34" s="1">
         <f>SUM($E$2:E34)</f>
-        <v>6.0299999999999994</v>
+        <v>6.03</v>
       </c>
       <c r="G34" s="1">
         <f>D34*怪物经验!C34</f>
@@ -2843,11 +3432,11 @@
         <f t="shared" si="5"/>
         <v>237510</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="15">
         <v>504840</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2890,11 +3479,11 @@
         <f t="shared" si="5"/>
         <v>243600</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="15">
         <v>529900</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2937,11 +3526,11 @@
         <f t="shared" si="5"/>
         <v>249690</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M36" s="15">
         <v>555560</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2984,11 +3573,11 @@
         <f t="shared" si="5"/>
         <v>255780</v>
       </c>
-      <c r="M37" s="13">
+      <c r="M37" s="15">
         <v>582580</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3010,7 +3599,7 @@
       </c>
       <c r="F38" s="1">
         <f>SUM($E$2:E38)</f>
-        <v>7.6899999999999995</v>
+        <v>7.69</v>
       </c>
       <c r="G38" s="1">
         <f>D38*怪物经验!C38</f>
@@ -3031,11 +3620,11 @@
         <f t="shared" si="5"/>
         <v>261870</v>
       </c>
-      <c r="M38" s="13">
+      <c r="M38" s="15">
         <v>609470</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3057,7 +3646,7 @@
       </c>
       <c r="F39" s="1">
         <f>SUM($E$2:E39)</f>
-        <v>8.129999999999999</v>
+        <v>8.13</v>
       </c>
       <c r="G39" s="1">
         <f>D39*怪物经验!C39</f>
@@ -3078,11 +3667,11 @@
         <f t="shared" si="5"/>
         <v>267960</v>
       </c>
-      <c r="M39" s="13">
+      <c r="M39" s="15">
         <v>636960</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3103,7 +3692,7 @@
       </c>
       <c r="F40" s="1">
         <f>SUM($E$2:E40)</f>
-        <v>8.629999999999999</v>
+        <v>8.63</v>
       </c>
       <c r="G40" s="1">
         <f>D40*怪物经验!C40</f>
@@ -3124,11 +3713,11 @@
         <f t="shared" si="5"/>
         <v>304500</v>
       </c>
-      <c r="M40" s="13">
+      <c r="M40" s="15">
         <v>738000</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3150,7 +3739,7 @@
       </c>
       <c r="F41" s="1">
         <f>SUM($E$2:E41)</f>
-        <v>9.1399999999999988</v>
+        <v>9.14</v>
       </c>
       <c r="G41" s="1">
         <f>D41*怪物经验!C41</f>
@@ -3171,11 +3760,11 @@
         <f t="shared" si="5"/>
         <v>471240</v>
       </c>
-      <c r="M41" s="13">
+      <c r="M41" s="15">
         <v>928840</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3197,7 +3786,7 @@
       </c>
       <c r="F42" s="1">
         <f>SUM($E$2:E42)</f>
-        <v>9.6599999999999984</v>
+        <v>9.66</v>
       </c>
       <c r="G42" s="1">
         <f>D42*怪物经验!C42</f>
@@ -3218,11 +3807,11 @@
         <f t="shared" si="5"/>
         <v>480480</v>
       </c>
-      <c r="M42" s="13">
+      <c r="M42" s="15">
         <v>962780</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3244,7 +3833,7 @@
       </c>
       <c r="F43" s="1">
         <f>SUM($E$2:E43)</f>
-        <v>10.189999999999998</v>
+        <v>10.19</v>
       </c>
       <c r="G43" s="1">
         <f>D43*怪物经验!C43</f>
@@ -3265,11 +3854,11 @@
         <f t="shared" si="5"/>
         <v>489720</v>
       </c>
-      <c r="M43" s="13">
+      <c r="M43" s="15">
         <v>997320</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3291,7 +3880,7 @@
       </c>
       <c r="F44" s="1">
         <f>SUM($E$2:E44)</f>
-        <v>10.729999999999997</v>
+        <v>10.73</v>
       </c>
       <c r="G44" s="1">
         <f>D44*怪物经验!C44</f>
@@ -3312,11 +3901,11 @@
         <f t="shared" si="5"/>
         <v>498960</v>
       </c>
-      <c r="M44" s="13">
+      <c r="M44" s="15">
         <v>1032460</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3334,11 +3923,11 @@
       </c>
       <c r="E45" s="1">
         <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F45" s="1">
         <f>SUM($E$2:E45)</f>
-        <v>11.279999999999998</v>
+        <v>11.28</v>
       </c>
       <c r="G45" s="1">
         <f>D45*怪物经验!C45</f>
@@ -3357,13 +3946,13 @@
       </c>
       <c r="K45" s="1">
         <f t="shared" si="5"/>
-        <v>508200.00000000006</v>
-      </c>
-      <c r="M45" s="13">
+        <v>508200</v>
+      </c>
+      <c r="M45" s="15">
         <v>1068200</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3381,11 +3970,11 @@
       </c>
       <c r="E46" s="1">
         <f t="shared" si="2"/>
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="F46" s="1">
         <f>SUM($E$2:E46)</f>
-        <v>11.839999999999998</v>
+        <v>11.84</v>
       </c>
       <c r="G46" s="1">
         <f>D46*怪物经验!C46</f>
@@ -3404,13 +3993,13 @@
       </c>
       <c r="K46" s="1">
         <f t="shared" si="5"/>
-        <v>517440.00000000006</v>
-      </c>
-      <c r="M46" s="13">
+        <v>517440</v>
+      </c>
+      <c r="M46" s="15">
         <v>1104540</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3428,11 +4017,11 @@
       </c>
       <c r="E47" s="1">
         <f t="shared" si="2"/>
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="F47" s="1">
         <f>SUM($E$2:E47)</f>
-        <v>12.409999999999998</v>
+        <v>12.41</v>
       </c>
       <c r="G47" s="1">
         <f>D47*怪物经验!C47</f>
@@ -3451,13 +4040,13 @@
       </c>
       <c r="K47" s="1">
         <f t="shared" si="5"/>
-        <v>526679.99999999988</v>
-      </c>
-      <c r="M47" s="13">
+        <v>526680</v>
+      </c>
+      <c r="M47" s="15">
         <v>1141480</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3475,11 +4064,11 @@
       </c>
       <c r="E48" s="1">
         <f t="shared" si="2"/>
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="F48" s="1">
         <f>SUM($E$2:E48)</f>
-        <v>12.989999999999998</v>
+        <v>12.99</v>
       </c>
       <c r="G48" s="1">
         <f>D48*怪物经验!C48</f>
@@ -3498,13 +4087,13 @@
       </c>
       <c r="K48" s="1">
         <f t="shared" si="5"/>
-        <v>535919.99999999988</v>
-      </c>
-      <c r="M48" s="13">
+        <v>535920</v>
+      </c>
+      <c r="M48" s="15">
         <v>1179020</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3526,7 +4115,7 @@
       </c>
       <c r="F49" s="1">
         <f>SUM($E$2:E49)</f>
-        <v>13.579999999999998</v>
+        <v>13.58</v>
       </c>
       <c r="G49" s="1">
         <f>D49*怪物经验!C49</f>
@@ -3547,11 +4136,11 @@
         <f t="shared" si="5"/>
         <v>545160</v>
       </c>
-      <c r="M49" s="13">
+      <c r="M49" s="15">
         <v>1217160</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3572,7 +4161,7 @@
       </c>
       <c r="F50" s="1">
         <f>SUM($E$2:E50)</f>
-        <v>14.279999999999998</v>
+        <v>14.28</v>
       </c>
       <c r="G50" s="1">
         <f>D50*怪物经验!C50</f>
@@ -3591,13 +4180,13 @@
       </c>
       <c r="K50" s="1">
         <f t="shared" si="5"/>
-        <v>646799.99999999988</v>
-      </c>
-      <c r="M50" s="13">
+        <v>646800</v>
+      </c>
+      <c r="M50" s="15">
         <v>1463300</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3619,7 +4208,7 @@
       </c>
       <c r="F51" s="1">
         <f>SUM($E$2:E51)</f>
-        <v>15.029999999999998</v>
+        <v>15.03</v>
       </c>
       <c r="G51" s="1">
         <f>D51*怪物经验!C51</f>
@@ -3640,11 +4229,11 @@
         <f t="shared" si="5"/>
         <v>929250</v>
       </c>
-      <c r="M51" s="13">
+      <c r="M51" s="15">
         <v>1826050</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3666,7 +4255,7 @@
       </c>
       <c r="F52" s="1">
         <f>SUM($E$2:E52)</f>
-        <v>15.829999999999998</v>
+        <v>15.83</v>
       </c>
       <c r="G52" s="1">
         <f>D52*怪物经验!C52</f>
@@ -3687,11 +4276,11 @@
         <f t="shared" si="5"/>
         <v>991200</v>
       </c>
-      <c r="M52" s="13">
+      <c r="M52" s="15">
         <v>1971300</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3713,7 +4302,7 @@
       </c>
       <c r="F53" s="1">
         <f>SUM($E$2:E53)</f>
-        <v>16.729999999999997</v>
+        <v>16.73</v>
       </c>
       <c r="G53" s="1">
         <f>D53*怪物经验!C53</f>
@@ -3734,11 +4323,11 @@
         <f t="shared" si="5"/>
         <v>1115100</v>
       </c>
-      <c r="M53" s="13">
+      <c r="M53" s="15">
         <v>2119550</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3760,7 +4349,7 @@
       </c>
       <c r="F54" s="1">
         <f>SUM($E$2:E54)</f>
-        <v>17.729999999999997</v>
+        <v>17.73</v>
       </c>
       <c r="G54" s="1">
         <f>D54*怪物经验!C54</f>
@@ -3781,11 +4370,11 @@
         <f t="shared" si="5"/>
         <v>1239000</v>
       </c>
-      <c r="M54" s="13">
+      <c r="M54" s="15">
         <v>2270800</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3803,11 +4392,11 @@
       </c>
       <c r="E55" s="1">
         <f t="shared" si="2"/>
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F55" s="1">
         <f>SUM($E$2:E55)</f>
-        <v>18.829999999999998</v>
+        <v>18.83</v>
       </c>
       <c r="G55" s="1">
         <f>D55*怪物经验!C55</f>
@@ -3828,11 +4417,11 @@
         <f t="shared" si="5"/>
         <v>1362900</v>
       </c>
-      <c r="M55" s="13">
+      <c r="M55" s="15">
         <v>2425050</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3854,7 +4443,7 @@
       </c>
       <c r="F56" s="1">
         <f>SUM($E$2:E56)</f>
-        <v>20.029999999999998</v>
+        <v>20.03</v>
       </c>
       <c r="G56" s="1">
         <f>D56*怪物经验!C56</f>
@@ -3875,11 +4464,11 @@
         <f t="shared" si="5"/>
         <v>1486800</v>
       </c>
-      <c r="M56" s="13">
+      <c r="M56" s="15">
         <v>2582300</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3922,11 +4511,11 @@
         <f t="shared" si="5"/>
         <v>1610700</v>
       </c>
-      <c r="M57" s="13">
+      <c r="M57" s="15">
         <v>2742550</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3948,7 +4537,7 @@
       </c>
       <c r="F58" s="1">
         <f>SUM($E$2:E58)</f>
-        <v>22.729999999999997</v>
+        <v>22.73</v>
       </c>
       <c r="G58" s="1">
         <f>D58*怪物经验!C58</f>
@@ -3969,11 +4558,11 @@
         <f t="shared" si="5"/>
         <v>1734600</v>
       </c>
-      <c r="M58" s="13">
+      <c r="M58" s="15">
         <v>2905800</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3986,7 +4575,7 @@
         <v>4268600</v>
       </c>
       <c r="D59" s="1">
-        <f>D58+200</f>
+        <f t="shared" ref="D59:D61" si="7">D58+200</f>
         <v>1600</v>
       </c>
       <c r="E59" s="1">
@@ -4016,11 +4605,11 @@
         <f t="shared" si="5"/>
         <v>1982400</v>
       </c>
-      <c r="M59" s="13">
+      <c r="M59" s="15">
         <v>3072050</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4033,7 +4622,7 @@
         <v>4854700</v>
       </c>
       <c r="D60" s="1">
-        <f>D59+200</f>
+        <f t="shared" si="7"/>
         <v>1800</v>
       </c>
       <c r="E60" s="1">
@@ -4063,11 +4652,11 @@
         <f t="shared" si="5"/>
         <v>2230200</v>
       </c>
-      <c r="M60" s="13">
+      <c r="M60" s="15">
         <v>3241300</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4080,7 +4669,7 @@
         <v>5452800</v>
       </c>
       <c r="D61" s="1">
-        <f>D60+200</f>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="E61" s="1">
@@ -4110,11 +4699,11 @@
         <f t="shared" si="5"/>
         <v>2478000</v>
       </c>
-      <c r="M61" s="13">
+      <c r="M61" s="15">
         <v>3413550</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4157,11 +4746,11 @@
         <f t="shared" si="5"/>
         <v>3097500</v>
       </c>
-      <c r="M62" s="13">
+      <c r="M62" s="15">
         <v>4825850</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4204,11 +4793,11 @@
         <f t="shared" si="5"/>
         <v>4088700</v>
       </c>
-      <c r="M63" s="13">
+      <c r="M63" s="15">
         <v>6268150</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4230,7 +4819,7 @@
       </c>
       <c r="F64" s="1">
         <f>SUM($E$2:E64)</f>
-        <v>38.229999999999997</v>
+        <v>38.23</v>
       </c>
       <c r="G64" s="1">
         <f>D64*怪物经验!C64</f>
@@ -4251,11 +4840,11 @@
         <f t="shared" si="5"/>
         <v>5327700</v>
       </c>
-      <c r="M64" s="13">
+      <c r="M64" s="15">
         <v>7740450</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4298,11 +4887,11 @@
         <f t="shared" si="5"/>
         <v>6814500</v>
       </c>
-      <c r="M65" s="13">
+      <c r="M65" s="15">
         <v>9242750</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4345,20 +4934,20 @@
         <f t="shared" si="5"/>
         <v>8673000</v>
       </c>
-      <c r="M66" s="13">
+      <c r="M66" s="15">
         <v>10775050</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" ref="B67:B71" si="7">G67+H67+K67</f>
+        <f t="shared" ref="B67:B71" si="8">G67+H67+K67</f>
         <v>26091000</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" ref="C67:C71" si="8">ROUND(B67,-2)</f>
+        <f t="shared" ref="C67:C71" si="9">ROUND(B67,-2)</f>
         <v>26091000</v>
       </c>
       <c r="D67" s="1">
@@ -4366,7 +4955,7 @@
         <v>9000</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" ref="E67:E71" si="9">D67/$R$4</f>
+        <f t="shared" ref="E67:E71" si="10">D67/$R$4</f>
         <v>9</v>
       </c>
       <c r="F67" s="1">
@@ -4392,20 +4981,20 @@
         <f t="shared" si="5"/>
         <v>11151000</v>
       </c>
-      <c r="M67" s="13">
+      <c r="M67" s="15">
         <v>13770250</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35148000</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35148000</v>
       </c>
       <c r="D68" s="1">
@@ -4413,12 +5002,12 @@
         <v>12000</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="F68" s="1">
         <f>SUM($E$2:E68)</f>
-        <v>71.72999999999999</v>
+        <v>71.73</v>
       </c>
       <c r="G68" s="1">
         <f>D68*怪物经验!C68</f>
@@ -4439,20 +5028,20 @@
         <f t="shared" si="5"/>
         <v>14868000</v>
       </c>
-      <c r="M68" s="13">
+      <c r="M68" s="15">
         <v>16841750</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>47344000</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>47344000</v>
       </c>
       <c r="D69" s="1">
@@ -4460,12 +5049,12 @@
         <v>16000</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="F69" s="1">
         <f>SUM($E$2:E69)</f>
-        <v>87.72999999999999</v>
+        <v>87.73</v>
       </c>
       <c r="G69" s="1">
         <f>D69*怪物经验!C69</f>
@@ -4486,32 +5075,32 @@
         <f t="shared" si="5"/>
         <v>19824000</v>
       </c>
-      <c r="M69" s="13">
+      <c r="M69" s="15">
         <v>21452750</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <f t="shared" si="7"/>
-        <v>59780000</v>
-      </c>
-      <c r="C70" s="1">
         <f t="shared" si="8"/>
         <v>59780000</v>
       </c>
+      <c r="C70" s="1">
+        <f t="shared" si="9"/>
+        <v>59780000</v>
+      </c>
       <c r="D70" s="1">
         <v>20000</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="F70" s="1">
         <f>SUM($E$2:E70)</f>
-        <v>107.72999999999999</v>
+        <v>107.73</v>
       </c>
       <c r="G70" s="1">
         <f>D70*怪物经验!C70</f>
@@ -4532,32 +5121,32 @@
         <f t="shared" si="5"/>
         <v>24780000</v>
       </c>
-      <c r="M70" s="13">
+      <c r="M70" s="15">
         <v>29890000</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <f t="shared" si="7"/>
-        <v>75475000</v>
-      </c>
-      <c r="C71" s="1">
         <f t="shared" si="8"/>
         <v>75475000</v>
       </c>
+      <c r="C71" s="1">
+        <f t="shared" si="9"/>
+        <v>75475000</v>
+      </c>
       <c r="D71" s="1">
         <v>25000</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="F71" s="1">
         <f>SUM($E$2:E71)</f>
-        <v>132.72999999999999</v>
+        <v>132.73</v>
       </c>
       <c r="G71" s="1">
         <f>D71*怪物经验!C71</f>
@@ -4578,92 +5167,92 @@
         <f t="shared" si="5"/>
         <v>30975000</v>
       </c>
-      <c r="M71" s="13">
+      <c r="M71" s="15">
         <v>34718500</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA2BE89-34EE-4D38-9CA3-E293CA75CE55}">
-  <dimension ref="B1:Y60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:Z60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
+      <selection activeCell="U40" sqref="U40:U45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" customWidth="1"/>
-    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="8" max="9" width="11.375" customWidth="1"/>
+    <col min="13" max="13" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:25">
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N2" s="1">
         <v>5</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="R2" s="1">
         <v>5</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -4697,16 +5286,16 @@
         <v>200000</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="N3" s="1">
         <v>20</v>
       </c>
-      <c r="O3" s="14" t="s">
-        <v>54</v>
+      <c r="O3" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="R3" s="1">
         <v>10</v>
@@ -4728,7 +5317,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -4737,7 +5326,7 @@
         <v>900</v>
       </c>
       <c r="D4" s="1">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ref="E4:E12" si="1">D4*C4</f>
@@ -4763,7 +5352,7 @@
         <v>220000</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="N4" s="1">
         <v>5</v>
@@ -4782,7 +5371,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -4813,7 +5402,7 @@
         <v>18</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" ref="J5:J8" si="6">J4+20000</f>
+        <f t="shared" ref="J5:J10" si="6">J4+20000</f>
         <v>240000</v>
       </c>
       <c r="V5" s="1">
@@ -4830,7 +5419,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:25">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -4840,7 +5429,7 @@
       </c>
       <c r="D6" s="1">
         <f>D5+0.6</f>
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
@@ -4879,7 +5468,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:25">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -4889,11 +5478,11 @@
       </c>
       <c r="D7" s="1">
         <f>D6+0.65</f>
-        <v>2.9499999999999997</v>
+        <v>2.95</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>3982.4999999999995</v>
+        <v>3982.5</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="2"/>
@@ -4911,7 +5500,7 @@
         <v>40</v>
       </c>
       <c r="J7" s="1">
-        <f>J6+20000</f>
+        <f t="shared" si="6"/>
         <v>280000</v>
       </c>
       <c r="V7" s="1">
@@ -4928,7 +5517,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:25">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -4938,11 +5527,11 @@
       </c>
       <c r="D8" s="1">
         <f>D7+0.7</f>
-        <v>3.6499999999999995</v>
+        <v>3.65</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>5474.9999999999991</v>
+        <v>5475</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="2"/>
@@ -4977,7 +5566,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:25">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -5009,7 +5598,7 @@
         <v>75</v>
       </c>
       <c r="J9" s="1">
-        <f>J8+20000</f>
+        <f t="shared" si="6"/>
         <v>320000</v>
       </c>
       <c r="V9" s="1">
@@ -5026,7 +5615,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:25">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -5058,7 +5647,7 @@
         <v>100</v>
       </c>
       <c r="J10" s="1">
-        <f>J9+20000</f>
+        <f t="shared" si="6"/>
         <v>340000</v>
       </c>
       <c r="V10" s="1">
@@ -5075,7 +5664,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:25">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -5124,7 +5713,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="12" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:25">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -5173,8 +5762,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="4:24">
       <c r="D14" s="1">
         <f>SUM(D3:D11)</f>
         <v>29.4</v>
@@ -5184,23 +5773,23 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="23:24">
       <c r="W15" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="X15" s="1">
         <f>X14*4</f>
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="13:13">
       <c r="M16" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="13:24">
       <c r="M17" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="O17" s="1">
         <v>1</v>
@@ -5221,9 +5810,9 @@
         <v>100203;300</v>
       </c>
     </row>
-    <row r="18" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="13:24">
       <c r="M18" s="1" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="O18" s="1">
         <v>2</v>
@@ -5248,12 +5837,12 @@
         <v>100203;600</v>
       </c>
     </row>
-    <row r="19" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:24">
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="O19" s="1">
         <v>3</v>
@@ -5278,15 +5867,15 @@
         <v>100203;1200</v>
       </c>
     </row>
-    <row r="20" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:24">
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="O20" s="1">
         <v>4</v>
@@ -5311,15 +5900,15 @@
         <v>100203;2100</v>
       </c>
     </row>
-    <row r="21" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:24">
       <c r="B21" s="1">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="O21" s="1">
         <v>5</v>
@@ -5344,7 +5933,7 @@
         <v>100203;3000</v>
       </c>
     </row>
-    <row r="22" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:24">
       <c r="B22" s="1">
         <v>3</v>
       </c>
@@ -5371,7 +5960,7 @@
         <v>100203;4200</v>
       </c>
     </row>
-    <row r="23" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="15:24">
       <c r="O23" s="1">
         <v>7</v>
       </c>
@@ -5395,7 +5984,7 @@
         <v>100203;5400</v>
       </c>
     </row>
-    <row r="24" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="15:24">
       <c r="O24" s="1">
         <v>8</v>
       </c>
@@ -5419,7 +6008,7 @@
         <v>100203;7200</v>
       </c>
     </row>
-    <row r="25" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="15:24">
       <c r="O25" s="1">
         <v>9</v>
       </c>
@@ -5443,7 +6032,7 @@
         <v>100203;9000</v>
       </c>
     </row>
-    <row r="26" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="15:24">
       <c r="O26" s="1">
         <v>10</v>
       </c>
@@ -5467,24 +6056,24 @@
         <v>100203;10800</v>
       </c>
     </row>
-    <row r="27" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="10:10">
       <c r="J27" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C29" s="1" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:11">
       <c r="C30" s="1">
         <v>1</v>
       </c>
@@ -5495,16 +6084,16 @@
         <v>30</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="K30" s="1">
         <v>5000000</v>
       </c>
     </row>
-    <row r="31" spans="2:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C31" s="1">
         <v>2</v>
       </c>
@@ -5515,10 +6104,10 @@
         <v>25</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="2:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:21">
       <c r="C32" s="1">
         <v>3</v>
       </c>
@@ -5529,16 +6118,19 @@
         <v>20</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="K32" s="1">
         <f>K30*0.8*0.6/20</f>
         <v>120000</v>
       </c>
-    </row>
-    <row r="33" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="15" t="s">
-        <v>75</v>
+      <c r="U32" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+      <c r="C33" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="D33" s="1">
         <v>10</v>
@@ -5547,12 +6139,16 @@
         <v>15</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="16" t="s">
-        <v>76</v>
+        <v>57</v>
+      </c>
+      <c r="Q33" s="3">
+        <f>200*12</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="34" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+      <c r="C34" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="D34" s="1">
         <v>5</v>
@@ -5561,12 +6157,12 @@
         <v>10</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C35" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D35" s="1">
         <v>5</v>
@@ -5575,60 +6171,350 @@
         <v>5</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J36" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" s="3" customFormat="1" ht="20.1" customHeight="1" spans="10:10">
+      <c r="J36" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" s="3" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="38" s="3" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="39" s="3" customFormat="1" ht="20.1" customHeight="1" spans="15:26">
+      <c r="O39" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11">
+        <v>0.225</v>
+      </c>
+      <c r="U39" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="V39" s="11"/>
+      <c r="X39" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y39" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="Z39" s="11"/>
+    </row>
+    <row r="40" s="3" customFormat="1" ht="20.1" customHeight="1" spans="9:26">
+      <c r="I40" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="L40" s="11">
+        <v>2500</v>
+      </c>
+      <c r="M40" s="11"/>
+      <c r="O40" s="11">
+        <v>10000</v>
+      </c>
+      <c r="P40" s="11">
+        <f>O40*$P$39</f>
+        <v>1500</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>2000</v>
+      </c>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11">
+        <f>O40*$T$39</f>
+        <v>2250</v>
+      </c>
+      <c r="U40" s="11">
+        <f>T40</f>
+        <v>2250</v>
+      </c>
+      <c r="V40" s="11"/>
+      <c r="Y40" s="11">
+        <f>O40*$Y$39</f>
+        <v>3000</v>
+      </c>
+      <c r="Z40" s="11">
+        <f>Y40/12</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" s="3" customFormat="1" ht="20.1" customHeight="1" spans="9:26">
+      <c r="I41" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L41" s="11">
+        <v>4000</v>
+      </c>
+      <c r="M41" s="11">
+        <f t="shared" ref="M41:M45" si="12">L41-L40</f>
+        <v>1500</v>
+      </c>
+      <c r="O41" s="11">
+        <v>20000</v>
+      </c>
+      <c r="P41" s="11">
+        <f>O41*$P$39</f>
+        <v>3000</v>
+      </c>
+      <c r="Q41" s="11">
+        <v>4000</v>
+      </c>
+      <c r="R41" s="11">
+        <f t="shared" ref="R41:R45" si="13">Q41-Q40</f>
+        <v>2000</v>
+      </c>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11">
+        <f>O41*$T$39</f>
+        <v>4500</v>
+      </c>
+      <c r="U41" s="11">
+        <f>T41</f>
+        <v>4500</v>
+      </c>
+      <c r="V41" s="11">
+        <f>U41-U40</f>
+        <v>2250</v>
+      </c>
+      <c r="Y41" s="11">
+        <f>O41*$Y$39</f>
+        <v>6000</v>
+      </c>
+      <c r="Z41" s="11">
+        <f>Y41/12</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" s="3" customFormat="1" ht="20.1" customHeight="1" spans="9:26">
+      <c r="I42" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L42" s="11">
+        <v>6000</v>
+      </c>
+      <c r="M42" s="11">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="O42" s="11">
+        <v>40000</v>
+      </c>
+      <c r="P42" s="11">
+        <f>O42*$P$39</f>
+        <v>6000</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>7500</v>
+      </c>
+      <c r="R42" s="11">
+        <f t="shared" si="13"/>
+        <v>3500</v>
+      </c>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11">
+        <f>O42*$T$39</f>
+        <v>9000</v>
+      </c>
+      <c r="U42" s="11">
+        <f>T42</f>
+        <v>9000</v>
+      </c>
+      <c r="V42" s="11">
+        <f>U42-U41</f>
+        <v>4500</v>
+      </c>
+      <c r="Y42" s="11">
+        <f>O42*$Y$39</f>
+        <v>12000</v>
+      </c>
+      <c r="Z42" s="11">
+        <f>Y42/12</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" s="3" customFormat="1" ht="20.1" customHeight="1" spans="9:26">
+      <c r="I43" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L43" s="11">
+        <v>9000</v>
+      </c>
+      <c r="M43" s="11">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="O43" s="11">
+        <v>60000</v>
+      </c>
+      <c r="P43" s="11">
+        <f>O43*$P$39</f>
+        <v>9000</v>
+      </c>
+      <c r="Q43" s="11">
+        <v>12000</v>
+      </c>
+      <c r="R43" s="11">
+        <f t="shared" si="13"/>
+        <v>4500</v>
+      </c>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11">
+        <f>O43*$T$39</f>
+        <v>13500</v>
+      </c>
+      <c r="U43" s="11">
+        <f>T43</f>
+        <v>13500</v>
+      </c>
+      <c r="V43" s="11">
+        <f>U43-U42</f>
+        <v>4500</v>
+      </c>
+      <c r="Y43" s="11">
+        <f>O43*$Y$39</f>
+        <v>18000</v>
+      </c>
+      <c r="Z43" s="11">
+        <f>Y43/12</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="44" s="3" customFormat="1" ht="20.1" customHeight="1" spans="9:26">
+      <c r="I44" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="L44" s="11">
+        <v>12000</v>
+      </c>
+      <c r="M44" s="11">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="O44" s="11">
+        <v>80000</v>
+      </c>
+      <c r="P44" s="11">
+        <f>O44*$P$39</f>
+        <v>12000</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>18000</v>
+      </c>
+      <c r="R44" s="11">
+        <f t="shared" si="13"/>
+        <v>6000</v>
+      </c>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11">
+        <f>O44*$T$39</f>
+        <v>18000</v>
+      </c>
+      <c r="U44" s="11">
+        <f>T44</f>
+        <v>18000</v>
+      </c>
+      <c r="V44" s="11">
+        <f>U44-U43</f>
+        <v>4500</v>
+      </c>
+      <c r="Y44" s="11">
+        <f>O44*$Y$39</f>
+        <v>24000</v>
+      </c>
+      <c r="Z44" s="11">
+        <f>Y44/12</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="45" s="3" customFormat="1" ht="20.1" customHeight="1" spans="12:26">
+      <c r="L45" s="11">
+        <v>35000</v>
+      </c>
+      <c r="M45" s="11">
+        <f t="shared" si="12"/>
+        <v>23000</v>
+      </c>
+      <c r="O45" s="11">
+        <v>120000</v>
+      </c>
+      <c r="P45" s="11">
+        <f>O45*$P$39</f>
+        <v>18000</v>
+      </c>
+      <c r="Q45" s="11">
+        <v>24000</v>
+      </c>
+      <c r="R45" s="11">
+        <f t="shared" si="13"/>
+        <v>6000</v>
+      </c>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11">
+        <f>O45*$T$39</f>
+        <v>27000</v>
+      </c>
+      <c r="U45" s="11">
+        <f>T45</f>
+        <v>27000</v>
+      </c>
+      <c r="V45" s="11">
+        <f>U45-U44</f>
+        <v>9000</v>
+      </c>
+      <c r="Y45" s="11">
+        <f>O45*$Y$39</f>
+        <v>36000</v>
+      </c>
+      <c r="Z45" s="11">
+        <f>Y45/12</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="46" s="3" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="47" s="3" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="48" s="3" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="49" s="3" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="50" s="3" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="51" s="3" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="52" s="3" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="53" s="3" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="54" s="3" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="55" s="3" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="56" s="3" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="57" s="3" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="58" s="3" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="59" s="3" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="60" s="3" customFormat="1" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -5636,7 +6522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -5644,7 +6530,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -5652,7 +6538,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -5660,7 +6546,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -5668,7 +6554,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3">
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -5676,7 +6562,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3">
       <c r="B10" s="2">
         <v>7</v>
       </c>
@@ -5684,7 +6570,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3">
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -5692,7 +6578,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3">
       <c r="B12" s="2">
         <v>9</v>
       </c>
@@ -5700,7 +6586,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3">
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -5709,59 +6595,60 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="3" width="9" style="4"/>
-    <col min="4" max="7" width="11.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="3" width="9" style="3"/>
+    <col min="4" max="7" width="11.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5787,10 +6674,10 @@
         <f>C2*10</f>
         <v>150</v>
       </c>
-      <c r="K2" s="8">
-        <v>1</v>
-      </c>
-      <c r="L2" s="8">
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6">
         <v>1</v>
       </c>
       <c r="M2" s="1">
@@ -5806,7 +6693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5833,10 +6720,10 @@
         <f t="shared" ref="G3:G66" si="3">C3*20</f>
         <v>400</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="6">
         <v>2</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="6">
         <v>1</v>
       </c>
       <c r="M3" s="1">
@@ -5852,7 +6739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5879,10 +6766,10 @@
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="6">
         <v>3</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="6">
         <v>1</v>
       </c>
       <c r="M4" s="1">
@@ -5898,7 +6785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5925,10 +6812,10 @@
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="6">
         <v>3</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="6">
         <v>3</v>
       </c>
       <c r="M5" s="1" t="str">
@@ -5944,7 +6831,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5971,10 +6858,10 @@
         <f t="shared" si="3"/>
         <v>800</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="6">
         <v>4</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="6">
         <v>1</v>
       </c>
       <c r="M6" s="1">
@@ -5990,7 +6877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6017,10 +6904,10 @@
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <v>4</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="6">
         <v>1</v>
       </c>
       <c r="M7" s="1">
@@ -6036,7 +6923,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6063,10 +6950,10 @@
         <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="7">
         <v>4</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="7">
         <v>1</v>
       </c>
       <c r="M8" s="1">
@@ -6082,7 +6969,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6109,10 +6996,10 @@
         <f t="shared" si="3"/>
         <v>1400</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="6">
         <v>4</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="6">
         <v>1</v>
       </c>
       <c r="M9" s="1">
@@ -6128,7 +7015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6155,10 +7042,10 @@
         <f t="shared" si="3"/>
         <v>1600</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="6">
         <v>5</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="6">
         <v>3</v>
       </c>
       <c r="M10" s="1" t="str">
@@ -6174,7 +7061,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6201,10 +7088,10 @@
         <f t="shared" si="3"/>
         <v>1900</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="6">
         <v>7</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="6">
         <v>1</v>
       </c>
       <c r="M11" s="1">
@@ -6220,7 +7107,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6247,10 +7134,10 @@
         <f t="shared" si="3"/>
         <v>2200</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="7">
         <v>7</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="7">
         <v>1</v>
       </c>
       <c r="M12" s="1">
@@ -6266,7 +7153,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6293,10 +7180,10 @@
         <f t="shared" si="3"/>
         <v>2500</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="7">
         <v>8</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="7">
         <v>1</v>
       </c>
       <c r="M13" s="1">
@@ -6312,7 +7199,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6339,10 +7226,10 @@
         <f t="shared" si="3"/>
         <v>2800</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="6">
         <v>10</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="6">
         <v>3</v>
       </c>
       <c r="M14" s="1" t="str">
@@ -6358,7 +7245,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6385,10 +7272,10 @@
         <f t="shared" si="3"/>
         <v>3100</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="6">
         <v>10</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="6">
         <v>1</v>
       </c>
       <c r="M15" s="1">
@@ -6404,7 +7291,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6431,10 +7318,10 @@
         <f t="shared" si="3"/>
         <v>3400</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="6">
         <v>10</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="6">
         <v>1</v>
       </c>
       <c r="M16" s="1">
@@ -6450,7 +7337,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -6477,10 +7364,10 @@
         <f t="shared" si="3"/>
         <v>3800</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="7">
         <v>10</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="7">
         <v>1</v>
       </c>
       <c r="M17" s="1">
@@ -6496,7 +7383,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -6523,10 +7410,10 @@
         <f t="shared" si="3"/>
         <v>4200</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="7">
         <v>10</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="7">
         <v>1</v>
       </c>
       <c r="M18" s="1">
@@ -6542,7 +7429,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -6569,10 +7456,10 @@
         <f t="shared" si="3"/>
         <v>4600</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="6">
         <v>10</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="6">
         <v>1</v>
       </c>
       <c r="M19" s="1">
@@ -6588,7 +7475,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -6615,10 +7502,10 @@
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="6">
         <v>12</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="6">
         <v>3</v>
       </c>
       <c r="M20" s="1" t="str">
@@ -6634,7 +7521,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -6661,10 +7548,10 @@
         <f t="shared" si="3"/>
         <v>5600</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="6">
         <v>13</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="6">
         <v>1</v>
       </c>
       <c r="M21" s="1">
@@ -6680,7 +7567,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -6707,10 +7594,10 @@
         <f t="shared" si="3"/>
         <v>6200</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="7">
         <v>13</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="7">
         <v>1</v>
       </c>
       <c r="M22" s="1">
@@ -6726,7 +7613,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -6753,10 +7640,10 @@
         <f t="shared" si="3"/>
         <v>6800</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="6">
         <v>15</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="6">
         <v>3</v>
       </c>
       <c r="M23" s="1" t="str">
@@ -6772,7 +7659,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -6799,10 +7686,10 @@
         <f t="shared" si="3"/>
         <v>7400</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="6">
         <v>19</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="6">
         <v>1</v>
       </c>
       <c r="M24" s="1">
@@ -6818,7 +7705,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -6845,10 +7732,10 @@
         <f t="shared" si="3"/>
         <v>8000</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="6">
         <v>19</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="6">
         <v>1</v>
       </c>
       <c r="M25" s="1">
@@ -6864,7 +7751,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -6891,10 +7778,10 @@
         <f t="shared" si="3"/>
         <v>8600</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="6">
         <v>22</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="6">
         <v>3</v>
       </c>
       <c r="M26" s="1" t="str">
@@ -6910,7 +7797,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -6937,10 +7824,10 @@
         <f t="shared" si="3"/>
         <v>9200</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="6">
         <v>23</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="6">
         <v>1</v>
       </c>
       <c r="M27" s="1">
@@ -6956,7 +7843,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -6983,10 +7870,10 @@
         <f t="shared" si="3"/>
         <v>9800</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="6">
         <v>23</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="6">
         <v>1</v>
       </c>
       <c r="M28" s="1">
@@ -7002,7 +7889,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7029,10 +7916,10 @@
         <f t="shared" si="3"/>
         <v>10400</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="6">
         <v>25</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="6">
         <v>3</v>
       </c>
       <c r="M29" s="1" t="str">
@@ -7048,7 +7935,7 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7075,10 +7962,10 @@
         <f t="shared" si="3"/>
         <v>11000</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="6">
         <v>25</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="6">
         <v>3</v>
       </c>
       <c r="M30" s="1" t="str">
@@ -7094,7 +7981,7 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -7121,10 +8008,10 @@
         <f t="shared" si="3"/>
         <v>11600</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="6">
         <v>26</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="6">
         <v>1</v>
       </c>
       <c r="M31" s="1">
@@ -7140,7 +8027,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -7167,10 +8054,10 @@
         <f t="shared" si="3"/>
         <v>12200</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="6">
         <v>26</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="6">
         <v>1</v>
       </c>
       <c r="M32" s="1">
@@ -7186,7 +8073,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -7213,10 +8100,10 @@
         <f t="shared" si="3"/>
         <v>12800</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="6">
         <v>27</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="6">
         <v>1</v>
       </c>
       <c r="M33" s="1">
@@ -7232,7 +8119,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7259,10 +8146,10 @@
         <f t="shared" si="3"/>
         <v>13400</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="6">
         <v>28</v>
       </c>
-      <c r="L34" s="8">
+      <c r="L34" s="6">
         <v>1</v>
       </c>
       <c r="M34" s="1">
@@ -7278,7 +8165,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -7305,10 +8192,10 @@
         <f t="shared" si="3"/>
         <v>14000</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="6">
         <v>29</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L35" s="6">
         <v>3</v>
       </c>
       <c r="M35" s="1" t="str">
@@ -7324,7 +8211,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -7351,10 +8238,10 @@
         <f t="shared" si="3"/>
         <v>14600</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36" s="6">
         <v>30</v>
       </c>
-      <c r="L36" s="8">
+      <c r="L36" s="6">
         <v>1</v>
       </c>
       <c r="M36" s="1">
@@ -7370,7 +8257,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -7397,10 +8284,10 @@
         <f t="shared" si="3"/>
         <v>15200</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K37" s="6">
         <v>30</v>
       </c>
-      <c r="L37" s="8">
+      <c r="L37" s="6">
         <v>1</v>
       </c>
       <c r="M37" s="1">
@@ -7416,7 +8303,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -7443,10 +8330,10 @@
         <f t="shared" si="3"/>
         <v>15800</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K38" s="6">
         <v>32</v>
       </c>
-      <c r="L38" s="8">
+      <c r="L38" s="6">
         <v>3</v>
       </c>
       <c r="M38" s="1" t="str">
@@ -7462,7 +8349,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -7489,10 +8376,10 @@
         <f t="shared" si="3"/>
         <v>16400</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K39" s="6">
         <v>32</v>
       </c>
-      <c r="L39" s="8">
+      <c r="L39" s="6">
         <v>1</v>
       </c>
       <c r="M39" s="1">
@@ -7508,7 +8395,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -7535,10 +8422,10 @@
         <f t="shared" si="3"/>
         <v>17000</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K40" s="6">
         <v>32</v>
       </c>
-      <c r="L40" s="8">
+      <c r="L40" s="6">
         <v>1</v>
       </c>
       <c r="M40" s="1">
@@ -7554,7 +8441,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -7581,10 +8468,10 @@
         <f t="shared" si="3"/>
         <v>17600</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K41" s="6">
         <v>34</v>
       </c>
-      <c r="L41" s="8">
+      <c r="L41" s="6">
         <v>3</v>
       </c>
       <c r="M41" s="1" t="str">
@@ -7600,7 +8487,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -7627,10 +8514,10 @@
         <f t="shared" si="3"/>
         <v>18200</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42" s="6">
         <v>34</v>
       </c>
-      <c r="L42" s="8">
+      <c r="L42" s="6">
         <v>1</v>
       </c>
       <c r="M42" s="1">
@@ -7646,7 +8533,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -7673,10 +8560,10 @@
         <f t="shared" si="3"/>
         <v>18800</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K43" s="6">
         <v>34</v>
       </c>
-      <c r="L43" s="8">
+      <c r="L43" s="6">
         <v>1</v>
       </c>
       <c r="M43" s="1">
@@ -7692,7 +8579,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -7719,10 +8606,10 @@
         <f t="shared" si="3"/>
         <v>19400</v>
       </c>
-      <c r="K44" s="8">
+      <c r="K44" s="6">
         <v>35</v>
       </c>
-      <c r="L44" s="8">
+      <c r="L44" s="6">
         <v>1</v>
       </c>
       <c r="M44" s="1">
@@ -7738,7 +8625,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -7765,10 +8652,10 @@
         <f t="shared" si="3"/>
         <v>20000</v>
       </c>
-      <c r="K45" s="8">
+      <c r="K45" s="6">
         <v>35</v>
       </c>
-      <c r="L45" s="8">
+      <c r="L45" s="6">
         <v>1</v>
       </c>
       <c r="M45" s="1">
@@ -7784,7 +8671,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -7811,10 +8698,10 @@
         <f t="shared" si="3"/>
         <v>20600</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K46" s="6">
         <v>36</v>
       </c>
-      <c r="L46" s="8">
+      <c r="L46" s="6">
         <v>1</v>
       </c>
       <c r="M46" s="1">
@@ -7830,7 +8717,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -7857,10 +8744,10 @@
         <f t="shared" si="3"/>
         <v>21200</v>
       </c>
-      <c r="K47" s="8">
+      <c r="K47" s="6">
         <v>36</v>
       </c>
-      <c r="L47" s="8">
+      <c r="L47" s="6">
         <v>3</v>
       </c>
       <c r="M47" s="1" t="str">
@@ -7876,7 +8763,7 @@
         <v>15200</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7903,10 +8790,10 @@
         <f t="shared" si="3"/>
         <v>21800</v>
       </c>
-      <c r="K48" s="8">
+      <c r="K48" s="6">
         <v>38</v>
       </c>
-      <c r="L48" s="8">
+      <c r="L48" s="6">
         <v>2</v>
       </c>
       <c r="M48" s="1" t="str">
@@ -7922,7 +8809,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7949,10 +8836,10 @@
         <f t="shared" si="3"/>
         <v>22400</v>
       </c>
-      <c r="K49" s="8">
+      <c r="K49" s="6">
         <v>37</v>
       </c>
-      <c r="L49" s="8">
+      <c r="L49" s="6">
         <v>1</v>
       </c>
       <c r="M49" s="1">
@@ -7968,7 +8855,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7995,10 +8882,10 @@
         <f t="shared" si="3"/>
         <v>23000</v>
       </c>
-      <c r="K50" s="8">
+      <c r="K50" s="6">
         <v>37</v>
       </c>
-      <c r="L50" s="8">
+      <c r="L50" s="6">
         <v>1</v>
       </c>
       <c r="M50" s="1">
@@ -8014,7 +8901,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -8041,10 +8928,10 @@
         <f t="shared" si="3"/>
         <v>23600</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K51" s="6">
         <v>39</v>
       </c>
-      <c r="L51" s="8">
+      <c r="L51" s="6">
         <v>3</v>
       </c>
       <c r="M51" s="1" t="str">
@@ -8060,7 +8947,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -8087,10 +8974,10 @@
         <f t="shared" si="3"/>
         <v>24200</v>
       </c>
-      <c r="K52" s="8">
+      <c r="K52" s="6">
         <v>40</v>
       </c>
-      <c r="L52" s="8">
+      <c r="L52" s="6">
         <v>1</v>
       </c>
       <c r="M52" s="1">
@@ -8106,7 +8993,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -8133,10 +9020,10 @@
         <f t="shared" si="3"/>
         <v>24800</v>
       </c>
-      <c r="K53" s="8">
+      <c r="K53" s="6">
         <v>40</v>
       </c>
-      <c r="L53" s="8">
+      <c r="L53" s="6">
         <v>1</v>
       </c>
       <c r="M53" s="1">
@@ -8152,7 +9039,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -8179,10 +9066,10 @@
         <f t="shared" si="3"/>
         <v>25400</v>
       </c>
-      <c r="K54" s="8">
+      <c r="K54" s="6">
         <v>42</v>
       </c>
-      <c r="L54" s="8">
+      <c r="L54" s="6">
         <v>3</v>
       </c>
       <c r="M54" s="1" t="str">
@@ -8198,7 +9085,7 @@
         <v>18800</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -8225,10 +9112,10 @@
         <f t="shared" si="3"/>
         <v>26000</v>
       </c>
-      <c r="K55" s="8">
+      <c r="K55" s="6">
         <v>42</v>
       </c>
-      <c r="L55" s="8">
+      <c r="L55" s="6">
         <v>1</v>
       </c>
       <c r="M55" s="1">
@@ -8244,7 +9131,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -8271,10 +9158,10 @@
         <f t="shared" si="3"/>
         <v>26600</v>
       </c>
-      <c r="K56" s="8">
+      <c r="K56" s="6">
         <v>42</v>
       </c>
-      <c r="L56" s="8">
+      <c r="L56" s="6">
         <v>1</v>
       </c>
       <c r="M56" s="1">
@@ -8290,7 +9177,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -8317,10 +9204,10 @@
         <f t="shared" si="3"/>
         <v>27200</v>
       </c>
-      <c r="K57" s="8">
+      <c r="K57" s="6">
         <v>44</v>
       </c>
-      <c r="L57" s="8">
+      <c r="L57" s="6">
         <v>3</v>
       </c>
       <c r="M57" s="1" t="str">
@@ -8336,7 +9223,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -8363,10 +9250,10 @@
         <f t="shared" si="3"/>
         <v>27800</v>
       </c>
-      <c r="K58" s="8">
+      <c r="K58" s="6">
         <v>45</v>
       </c>
-      <c r="L58" s="8">
+      <c r="L58" s="6">
         <v>1</v>
       </c>
       <c r="M58" s="1">
@@ -8382,7 +9269,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -8409,10 +9296,10 @@
         <f t="shared" si="3"/>
         <v>28400</v>
       </c>
-      <c r="K59" s="8">
+      <c r="K59" s="6">
         <v>44</v>
       </c>
-      <c r="L59" s="8">
+      <c r="L59" s="6">
         <v>1</v>
       </c>
       <c r="M59" s="1">
@@ -8428,7 +9315,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -8455,10 +9342,10 @@
         <f t="shared" si="3"/>
         <v>29000</v>
       </c>
-      <c r="K60" s="8">
+      <c r="K60" s="6">
         <v>44</v>
       </c>
-      <c r="L60" s="8">
+      <c r="L60" s="6">
         <v>1</v>
       </c>
       <c r="M60" s="1">
@@ -8474,7 +9361,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -8501,10 +9388,10 @@
         <f t="shared" si="3"/>
         <v>29600</v>
       </c>
-      <c r="K61" s="8">
+      <c r="K61" s="6">
         <v>46</v>
       </c>
-      <c r="L61" s="8">
+      <c r="L61" s="6">
         <v>3</v>
       </c>
       <c r="M61" s="1" t="str">
@@ -8520,7 +9407,7 @@
         <v>21200</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -8547,10 +9434,10 @@
         <f t="shared" si="3"/>
         <v>30200</v>
       </c>
-      <c r="K62" s="8">
+      <c r="K62" s="6">
         <v>46</v>
       </c>
-      <c r="L62" s="8">
+      <c r="L62" s="6">
         <v>1</v>
       </c>
       <c r="M62" s="1">
@@ -8566,7 +9453,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -8593,10 +9480,10 @@
         <f t="shared" si="3"/>
         <v>30800</v>
       </c>
-      <c r="K63" s="8">
+      <c r="K63" s="6">
         <v>47</v>
       </c>
-      <c r="L63" s="8">
+      <c r="L63" s="6">
         <v>1</v>
       </c>
       <c r="M63" s="1">
@@ -8612,7 +9499,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -8639,10 +9526,10 @@
         <f t="shared" si="3"/>
         <v>31400</v>
       </c>
-      <c r="K64" s="8">
+      <c r="K64" s="6">
         <v>49</v>
       </c>
-      <c r="L64" s="8">
+      <c r="L64" s="6">
         <v>3</v>
       </c>
       <c r="M64" s="1" t="str">
@@ -8658,7 +9545,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="65" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -8685,10 +9572,10 @@
         <f t="shared" si="3"/>
         <v>32000</v>
       </c>
-      <c r="K65" s="8">
+      <c r="K65" s="6">
         <v>50</v>
       </c>
-      <c r="L65" s="8">
+      <c r="L65" s="6">
         <v>1</v>
       </c>
       <c r="M65" s="1">
@@ -8704,7 +9591,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="66" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -8731,10 +9618,10 @@
         <f t="shared" si="3"/>
         <v>32600</v>
       </c>
-      <c r="K66" s="8">
+      <c r="K66" s="6">
         <v>51</v>
       </c>
-      <c r="L66" s="8">
+      <c r="L66" s="6">
         <v>1</v>
       </c>
       <c r="M66" s="1">
@@ -8750,7 +9637,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -8777,10 +9664,10 @@
         <f t="shared" ref="G67:G71" si="12">C67*20</f>
         <v>33200</v>
       </c>
-      <c r="K67" s="8">
+      <c r="K67" s="6">
         <v>52</v>
       </c>
-      <c r="L67" s="8">
+      <c r="L67" s="6">
         <v>3</v>
       </c>
       <c r="M67" s="1" t="str">
@@ -8796,7 +9683,7 @@
         <v>24800</v>
       </c>
     </row>
-    <row r="68" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -8823,10 +9710,10 @@
         <f t="shared" si="12"/>
         <v>33800</v>
       </c>
-      <c r="K68" s="8">
+      <c r="K68" s="6">
         <v>54</v>
       </c>
-      <c r="L68" s="8">
+      <c r="L68" s="6">
         <v>3</v>
       </c>
       <c r="M68" s="1" t="str">
@@ -8842,7 +9729,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="69" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -8869,10 +9756,10 @@
         <f t="shared" si="12"/>
         <v>34400</v>
       </c>
-      <c r="K69" s="8">
+      <c r="K69" s="6">
         <v>52</v>
       </c>
-      <c r="L69" s="8">
+      <c r="L69" s="6">
         <v>1</v>
       </c>
       <c r="M69" s="1">
@@ -8888,7 +9775,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -8915,10 +9802,10 @@
         <f t="shared" si="12"/>
         <v>35000</v>
       </c>
-      <c r="K70" s="10">
+      <c r="K70" s="8">
         <v>50</v>
       </c>
-      <c r="L70" s="10">
+      <c r="L70" s="8">
         <v>1</v>
       </c>
       <c r="M70" s="1">
@@ -8934,7 +9821,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -8961,10 +9848,10 @@
         <f t="shared" si="12"/>
         <v>35600</v>
       </c>
-      <c r="K71" s="10">
+      <c r="K71" s="8">
         <v>50</v>
       </c>
-      <c r="L71" s="10">
+      <c r="L71" s="8">
         <v>1</v>
       </c>
       <c r="M71" s="1">
@@ -8980,18 +9867,18 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
+    <row r="72" spans="1:15">
+      <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="K72" s="10">
+      <c r="K72" s="8">
         <v>50</v>
       </c>
-      <c r="L72" s="10">
+      <c r="L72" s="8">
         <v>1</v>
       </c>
       <c r="M72" s="1">
@@ -9007,11 +9894,11 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K73" s="8">
+    <row r="73" spans="11:15">
+      <c r="K73" s="6">
         <v>55</v>
       </c>
-      <c r="L73" s="8">
+      <c r="L73" s="6">
         <v>1</v>
       </c>
       <c r="M73" s="1">
@@ -9027,11 +9914,11 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K74" s="8">
+    <row r="74" spans="11:15">
+      <c r="K74" s="6">
         <v>56</v>
       </c>
-      <c r="L74" s="8">
+      <c r="L74" s="6">
         <v>3</v>
       </c>
       <c r="M74" s="1" t="str">
@@ -9047,11 +9934,11 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K75" s="8">
+    <row r="75" spans="11:15">
+      <c r="K75" s="6">
         <v>58</v>
       </c>
-      <c r="L75" s="8">
+      <c r="L75" s="6">
         <v>3</v>
       </c>
       <c r="M75" s="1" t="str">
@@ -9067,11 +9954,11 @@
         <v>28400</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K76" s="8">
+    <row r="76" spans="11:15">
+      <c r="K76" s="6">
         <v>60</v>
       </c>
-      <c r="L76" s="8">
+      <c r="L76" s="6">
         <v>3</v>
       </c>
       <c r="M76" s="1" t="str">
@@ -9088,49 +9975,50 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="9" style="4"/>
-    <col min="4" max="5" width="15.125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9" style="4"/>
-    <col min="9" max="9" width="9" style="3"/>
-    <col min="10" max="10" width="9" style="6"/>
+    <col min="1" max="3" width="9" style="3"/>
+    <col min="4" max="5" width="15.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9159,7 +10047,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9188,7 +10076,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -9217,7 +10105,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -9246,7 +10134,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -9275,7 +10163,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -9304,7 +10192,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -9333,7 +10221,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -9362,7 +10250,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9391,7 +10279,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -9420,7 +10308,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -9449,7 +10337,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -9478,7 +10366,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -9507,7 +10395,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -9536,7 +10424,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -9565,7 +10453,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -9576,10 +10464,10 @@
         <f>B17*[1]怪物经验!C17</f>
         <v>1140</v>
       </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
         <v>1</v>
       </c>
       <c r="F17" s="1">
@@ -9594,7 +10482,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -9605,10 +10493,10 @@
         <f>B18*[1]怪物经验!C18</f>
         <v>1260</v>
       </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
         <v>1</v>
       </c>
       <c r="F18" s="1">
@@ -9623,7 +10511,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -9634,10 +10522,10 @@
         <f>B19*[1]怪物经验!C19</f>
         <v>1380</v>
       </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
         <v>1</v>
       </c>
       <c r="F19" s="1">
@@ -9652,7 +10540,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -9663,10 +10551,10 @@
         <f>B20*[1]怪物经验!C20</f>
         <v>1500</v>
       </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
         <v>1</v>
       </c>
       <c r="F20" s="1">
@@ -9681,7 +10569,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -9692,10 +10580,10 @@
         <f>B21*[1]怪物经验!C21</f>
         <v>1680</v>
       </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
         <v>1</v>
       </c>
       <c r="F21" s="1">
@@ -9710,7 +10598,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -9721,10 +10609,10 @@
         <f>B22*[1]怪物经验!C22</f>
         <v>2170</v>
       </c>
-      <c r="D22" s="7">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
         <v>1</v>
       </c>
       <c r="F22" s="1">
@@ -9739,7 +10627,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -9750,10 +10638,10 @@
         <f>B23*[1]怪物经验!C23</f>
         <v>2380</v>
       </c>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
         <v>1</v>
       </c>
       <c r="F23" s="1">
@@ -9768,7 +10656,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -9779,10 +10667,10 @@
         <f>B24*[1]怪物经验!C24</f>
         <v>2590</v>
       </c>
-      <c r="D24" s="7">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5">
         <v>1</v>
       </c>
       <c r="F24" s="1">
@@ -9797,7 +10685,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -9808,10 +10696,10 @@
         <f>B25*[1]怪物经验!C25</f>
         <v>2800</v>
       </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
         <v>1</v>
       </c>
       <c r="F25" s="1">
@@ -9826,7 +10714,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -9837,10 +10725,10 @@
         <f>B26*[1]怪物经验!C26</f>
         <v>3010</v>
       </c>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
-      <c r="E26" s="7">
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
         <v>1</v>
       </c>
       <c r="F26" s="1">
@@ -9855,7 +10743,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -9866,10 +10754,10 @@
         <f>B27*[1]怪物经验!C27</f>
         <v>3680</v>
       </c>
-      <c r="D27" s="7">
-        <v>1</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
         <v>1</v>
       </c>
       <c r="F27" s="1">
@@ -9884,7 +10772,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -9895,10 +10783,10 @@
         <f>B28*[1]怪物经验!C28</f>
         <v>3920</v>
       </c>
-      <c r="D28" s="7">
-        <v>1</v>
-      </c>
-      <c r="E28" s="7">
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
         <v>1</v>
       </c>
       <c r="F28" s="1">
@@ -9913,7 +10801,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -9924,10 +10812,10 @@
         <f>B29*[1]怪物经验!C29</f>
         <v>4160</v>
       </c>
-      <c r="D29" s="7">
-        <v>1</v>
-      </c>
-      <c r="E29" s="7">
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5">
         <v>1</v>
       </c>
       <c r="F29" s="1">
@@ -9942,7 +10830,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -9953,10 +10841,10 @@
         <f>B30*[1]怪物经验!C30</f>
         <v>4400</v>
       </c>
-      <c r="D30" s="7">
-        <v>1</v>
-      </c>
-      <c r="E30" s="7">
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5">
         <v>1</v>
       </c>
       <c r="F30" s="1">
@@ -9971,7 +10859,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -9982,10 +10870,10 @@
         <f>B31*[1]怪物经验!C31</f>
         <v>4640</v>
       </c>
-      <c r="D31" s="7">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7">
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
         <v>1</v>
       </c>
       <c r="F31" s="1">
@@ -10000,7 +10888,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -10011,10 +10899,10 @@
         <f>B32*[1]怪物经验!C32</f>
         <v>5490</v>
       </c>
-      <c r="D32" s="7">
-        <v>1</v>
-      </c>
-      <c r="E32" s="7">
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5">
         <v>1</v>
       </c>
       <c r="F32" s="1">
@@ -10029,7 +10917,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -10040,10 +10928,10 @@
         <f>B33*[1]怪物经验!C33</f>
         <v>5760</v>
       </c>
-      <c r="D33" s="7">
-        <v>1</v>
-      </c>
-      <c r="E33" s="7">
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
         <v>1</v>
       </c>
       <c r="F33" s="1">
@@ -10058,7 +10946,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -10069,10 +10957,10 @@
         <f>B34*[1]怪物经验!C34</f>
         <v>6030</v>
       </c>
-      <c r="D34" s="7">
-        <v>1</v>
-      </c>
-      <c r="E34" s="7">
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5">
         <v>1</v>
       </c>
       <c r="F34" s="1">
@@ -10087,7 +10975,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -10098,10 +10986,10 @@
         <f>B35*[1]怪物经验!C35</f>
         <v>6300</v>
       </c>
-      <c r="D35" s="7">
-        <v>1</v>
-      </c>
-      <c r="E35" s="7">
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
         <v>1</v>
       </c>
       <c r="F35" s="1">
@@ -10109,7 +10997,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -10120,10 +11008,10 @@
         <f>B36*[1]怪物经验!C36</f>
         <v>6570</v>
       </c>
-      <c r="D36" s="7">
-        <v>1</v>
-      </c>
-      <c r="E36" s="7">
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5">
         <v>1</v>
       </c>
       <c r="F36" s="1">
@@ -10131,7 +11019,7 @@
         <v>6570</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -10142,10 +11030,10 @@
         <f>B37*[1]怪物经验!C37</f>
         <v>7600</v>
       </c>
-      <c r="D37" s="7">
-        <v>1</v>
-      </c>
-      <c r="E37" s="7">
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5">
         <v>1</v>
       </c>
       <c r="F37" s="1">
@@ -10153,7 +11041,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -10164,10 +11052,10 @@
         <f>B38*[1]怪物经验!C38</f>
         <v>7900</v>
       </c>
-      <c r="D38" s="7">
-        <v>1</v>
-      </c>
-      <c r="E38" s="7">
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5">
         <v>1</v>
       </c>
       <c r="F38" s="1">
@@ -10175,7 +11063,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -10186,10 +11074,10 @@
         <f>B39*[1]怪物经验!C39</f>
         <v>8200</v>
       </c>
-      <c r="D39" s="7">
-        <v>1</v>
-      </c>
-      <c r="E39" s="7">
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="5">
         <v>1</v>
       </c>
       <c r="F39" s="1">
@@ -10197,7 +11085,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -10208,10 +11096,10 @@
         <f>B40*[1]怪物经验!C40</f>
         <v>8500</v>
       </c>
-      <c r="D40" s="7">
-        <v>1</v>
-      </c>
-      <c r="E40" s="7">
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5">
         <v>1</v>
       </c>
       <c r="F40" s="1">
@@ -10219,7 +11107,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -10230,10 +11118,10 @@
         <f>B41*[1]怪物经验!C41</f>
         <v>8800</v>
       </c>
-      <c r="D41" s="7">
-        <v>1</v>
-      </c>
-      <c r="E41" s="7">
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5">
         <v>1</v>
       </c>
       <c r="F41" s="1">
@@ -10241,7 +11129,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -10252,10 +11140,10 @@
         <f>B42*[1]怪物经验!C42</f>
         <v>9100</v>
       </c>
-      <c r="D42" s="7">
-        <v>1</v>
-      </c>
-      <c r="E42" s="7">
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5">
         <v>1</v>
       </c>
       <c r="F42" s="1">
@@ -10263,7 +11151,7 @@
         <v>9100</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -10274,10 +11162,10 @@
         <f>B43*[1]怪物经验!C43</f>
         <v>9400</v>
       </c>
-      <c r="D43" s="7">
-        <v>1</v>
-      </c>
-      <c r="E43" s="7">
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5">
         <v>1</v>
       </c>
       <c r="F43" s="1">
@@ -10285,7 +11173,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -10296,10 +11184,10 @@
         <f>B44*[1]怪物经验!C44</f>
         <v>9700</v>
       </c>
-      <c r="D44" s="7">
-        <v>1</v>
-      </c>
-      <c r="E44" s="7">
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5">
         <v>1</v>
       </c>
       <c r="F44" s="1">
@@ -10307,7 +11195,7 @@
         <v>9700</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -10318,10 +11206,10 @@
         <f>B45*[1]怪物经验!C45</f>
         <v>10000</v>
       </c>
-      <c r="D45" s="7">
-        <v>1</v>
-      </c>
-      <c r="E45" s="7">
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5">
         <v>1</v>
       </c>
       <c r="F45" s="1">
@@ -10329,7 +11217,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -10340,10 +11228,10 @@
         <f>B46*[1]怪物经验!C46</f>
         <v>10300</v>
       </c>
-      <c r="D46" s="7">
-        <v>1</v>
-      </c>
-      <c r="E46" s="7">
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5">
         <v>1</v>
       </c>
       <c r="F46" s="1">
@@ -10351,7 +11239,7 @@
         <v>10300</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -10362,10 +11250,10 @@
         <f>B47*[1]怪物经验!C47</f>
         <v>10600</v>
       </c>
-      <c r="D47" s="7">
-        <v>1</v>
-      </c>
-      <c r="E47" s="7">
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5">
         <v>1</v>
       </c>
       <c r="F47" s="1">
@@ -10373,7 +11261,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -10384,10 +11272,10 @@
         <f>B48*[1]怪物经验!C48</f>
         <v>10900</v>
       </c>
-      <c r="D48" s="7">
-        <v>1</v>
-      </c>
-      <c r="E48" s="7">
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5">
         <v>1</v>
       </c>
       <c r="F48" s="1">
@@ -10395,7 +11283,7 @@
         <v>10900</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -10406,10 +11294,10 @@
         <f>B49*[1]怪物经验!C49</f>
         <v>11200</v>
       </c>
-      <c r="D49" s="7">
-        <v>1</v>
-      </c>
-      <c r="E49" s="7">
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
+      <c r="E49" s="5">
         <v>1</v>
       </c>
       <c r="F49" s="1">
@@ -10417,7 +11305,7 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -10428,10 +11316,10 @@
         <f>B50*[1]怪物经验!C50</f>
         <v>11500</v>
       </c>
-      <c r="D50" s="7">
-        <v>1</v>
-      </c>
-      <c r="E50" s="7">
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5">
         <v>1</v>
       </c>
       <c r="F50" s="1">
@@ -10439,7 +11327,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -10450,10 +11338,10 @@
         <f>B51*[1]怪物经验!C51</f>
         <v>11800</v>
       </c>
-      <c r="D51" s="7">
-        <v>1</v>
-      </c>
-      <c r="E51" s="7">
+      <c r="D51" s="5">
+        <v>1</v>
+      </c>
+      <c r="E51" s="5">
         <v>1</v>
       </c>
       <c r="F51" s="1">
@@ -10461,7 +11349,7 @@
         <v>11800</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -10472,10 +11360,10 @@
         <f>B52*[1]怪物经验!C52</f>
         <v>12100</v>
       </c>
-      <c r="D52" s="7">
-        <v>1</v>
-      </c>
-      <c r="E52" s="7">
+      <c r="D52" s="5">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5">
         <v>1</v>
       </c>
       <c r="F52" s="1">
@@ -10483,7 +11371,7 @@
         <v>12100</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -10494,10 +11382,10 @@
         <f>B53*[1]怪物经验!C53</f>
         <v>12400</v>
       </c>
-      <c r="D53" s="7">
-        <v>1</v>
-      </c>
-      <c r="E53" s="7">
+      <c r="D53" s="5">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5">
         <v>1</v>
       </c>
       <c r="F53" s="1">
@@ -10505,7 +11393,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -10516,10 +11404,10 @@
         <f>B54*[1]怪物经验!C54</f>
         <v>12700</v>
       </c>
-      <c r="D54" s="7">
-        <v>1</v>
-      </c>
-      <c r="E54" s="7">
+      <c r="D54" s="5">
+        <v>1</v>
+      </c>
+      <c r="E54" s="5">
         <v>1</v>
       </c>
       <c r="F54" s="1">
@@ -10527,7 +11415,7 @@
         <v>12700</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -10538,10 +11426,10 @@
         <f>B55*[1]怪物经验!C55</f>
         <v>13000</v>
       </c>
-      <c r="D55" s="7">
-        <v>1</v>
-      </c>
-      <c r="E55" s="7">
+      <c r="D55" s="5">
+        <v>1</v>
+      </c>
+      <c r="E55" s="5">
         <v>1</v>
       </c>
       <c r="F55" s="1">
@@ -10549,7 +11437,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -10560,10 +11448,10 @@
         <f>B56*[1]怪物经验!C56</f>
         <v>13300</v>
       </c>
-      <c r="D56" s="7">
-        <v>1</v>
-      </c>
-      <c r="E56" s="7">
+      <c r="D56" s="5">
+        <v>1</v>
+      </c>
+      <c r="E56" s="5">
         <v>1</v>
       </c>
       <c r="F56" s="1">
@@ -10571,7 +11459,7 @@
         <v>13300</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -10582,10 +11470,10 @@
         <f>B57*[1]怪物经验!C57</f>
         <v>13600</v>
       </c>
-      <c r="D57" s="7">
-        <v>1</v>
-      </c>
-      <c r="E57" s="7">
+      <c r="D57" s="5">
+        <v>1</v>
+      </c>
+      <c r="E57" s="5">
         <v>1</v>
       </c>
       <c r="F57" s="1">
@@ -10593,7 +11481,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -10604,10 +11492,10 @@
         <f>B58*[1]怪物经验!C58</f>
         <v>13900</v>
       </c>
-      <c r="D58" s="7">
-        <v>1</v>
-      </c>
-      <c r="E58" s="7">
+      <c r="D58" s="5">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5">
         <v>1</v>
       </c>
       <c r="F58" s="1">
@@ -10615,7 +11503,7 @@
         <v>13900</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -10626,10 +11514,10 @@
         <f>B59*[1]怪物经验!C59</f>
         <v>14200</v>
       </c>
-      <c r="D59" s="7">
-        <v>1</v>
-      </c>
-      <c r="E59" s="7">
+      <c r="D59" s="5">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5">
         <v>1</v>
       </c>
       <c r="F59" s="1">
@@ -10637,7 +11525,7 @@
         <v>14200</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -10648,10 +11536,10 @@
         <f>B60*[1]怪物经验!C60</f>
         <v>14500</v>
       </c>
-      <c r="D60" s="7">
-        <v>1</v>
-      </c>
-      <c r="E60" s="7">
+      <c r="D60" s="5">
+        <v>1</v>
+      </c>
+      <c r="E60" s="5">
         <v>1</v>
       </c>
       <c r="F60" s="1">
@@ -10659,7 +11547,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -10670,10 +11558,10 @@
         <f>B61*[1]怪物经验!C61</f>
         <v>14800</v>
       </c>
-      <c r="D61" s="7">
-        <v>1</v>
-      </c>
-      <c r="E61" s="7">
+      <c r="D61" s="5">
+        <v>1</v>
+      </c>
+      <c r="E61" s="5">
         <v>1</v>
       </c>
       <c r="F61" s="1">
@@ -10681,7 +11569,7 @@
         <v>14800</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -10692,10 +11580,10 @@
         <f>B62*[1]怪物经验!C62</f>
         <v>15100</v>
       </c>
-      <c r="D62" s="7">
-        <v>1</v>
-      </c>
-      <c r="E62" s="7">
+      <c r="D62" s="5">
+        <v>1</v>
+      </c>
+      <c r="E62" s="5">
         <v>1</v>
       </c>
       <c r="F62" s="1">
@@ -10703,7 +11591,7 @@
         <v>15100</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -10714,10 +11602,10 @@
         <f>B63*[1]怪物经验!C63</f>
         <v>15400</v>
       </c>
-      <c r="D63" s="7">
-        <v>1</v>
-      </c>
-      <c r="E63" s="7">
+      <c r="D63" s="5">
+        <v>1</v>
+      </c>
+      <c r="E63" s="5">
         <v>1</v>
       </c>
       <c r="F63" s="1">
@@ -10725,7 +11613,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -10736,10 +11624,10 @@
         <f>B64*[1]怪物经验!C64</f>
         <v>15700</v>
       </c>
-      <c r="D64" s="7">
-        <v>1</v>
-      </c>
-      <c r="E64" s="7">
+      <c r="D64" s="5">
+        <v>1</v>
+      </c>
+      <c r="E64" s="5">
         <v>1</v>
       </c>
       <c r="F64" s="1">
@@ -10747,7 +11635,7 @@
         <v>15700</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -10758,10 +11646,10 @@
         <f>B65*[1]怪物经验!C65</f>
         <v>16000</v>
       </c>
-      <c r="D65" s="7">
-        <v>1</v>
-      </c>
-      <c r="E65" s="7">
+      <c r="D65" s="5">
+        <v>1</v>
+      </c>
+      <c r="E65" s="5">
         <v>1</v>
       </c>
       <c r="F65" s="1">
@@ -10769,7 +11657,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -10780,10 +11668,10 @@
         <f>B66*[1]怪物经验!C66</f>
         <v>16300</v>
       </c>
-      <c r="D66" s="7">
-        <v>1</v>
-      </c>
-      <c r="E66" s="7">
+      <c r="D66" s="5">
+        <v>1</v>
+      </c>
+      <c r="E66" s="5">
         <v>1</v>
       </c>
       <c r="F66" s="1">
@@ -10791,7 +11679,7 @@
         <v>16300</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -10802,10 +11690,10 @@
         <f>B67*[1]怪物经验!C67</f>
         <v>0</v>
       </c>
-      <c r="D67" s="7">
-        <v>1</v>
-      </c>
-      <c r="E67" s="7">
+      <c r="D67" s="5">
+        <v>1</v>
+      </c>
+      <c r="E67" s="5">
         <v>1</v>
       </c>
       <c r="F67" s="1">
@@ -10813,7 +11701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -10824,10 +11712,10 @@
         <f>B68*[1]怪物经验!C68</f>
         <v>0</v>
       </c>
-      <c r="D68" s="7">
-        <v>1</v>
-      </c>
-      <c r="E68" s="7">
+      <c r="D68" s="5">
+        <v>1</v>
+      </c>
+      <c r="E68" s="5">
         <v>1</v>
       </c>
       <c r="F68" s="1">
@@ -10835,7 +11723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -10846,10 +11734,10 @@
         <f>B69*[1]怪物经验!C69</f>
         <v>0</v>
       </c>
-      <c r="D69" s="7">
-        <v>1</v>
-      </c>
-      <c r="E69" s="7">
+      <c r="D69" s="5">
+        <v>1</v>
+      </c>
+      <c r="E69" s="5">
         <v>1</v>
       </c>
       <c r="F69" s="1">
@@ -10857,7 +11745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -10868,10 +11756,10 @@
         <f>B70*[1]怪物经验!C70</f>
         <v>0</v>
       </c>
-      <c r="D70" s="7">
-        <v>1</v>
-      </c>
-      <c r="E70" s="7">
+      <c r="D70" s="5">
+        <v>1</v>
+      </c>
+      <c r="E70" s="5">
         <v>1</v>
       </c>
       <c r="F70" s="1">
@@ -10879,7 +11767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -10890,10 +11778,10 @@
         <f>B71*[1]怪物经验!C71</f>
         <v>0</v>
       </c>
-      <c r="D71" s="7">
-        <v>1</v>
-      </c>
-      <c r="E71" s="7">
+      <c r="D71" s="5">
+        <v>1</v>
+      </c>
+      <c r="E71" s="5">
         <v>1</v>
       </c>
       <c r="F71" s="1">
@@ -10901,7 +11789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -10912,10 +11800,10 @@
         <f>B72*[1]怪物经验!C72</f>
         <v>0</v>
       </c>
-      <c r="D72" s="7">
-        <v>1</v>
-      </c>
-      <c r="E72" s="7">
+      <c r="D72" s="5">
+        <v>1</v>
+      </c>
+      <c r="E72" s="5">
         <v>1</v>
       </c>
       <c r="F72" s="1">
@@ -10923,7 +11811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -10934,10 +11822,10 @@
         <f>B73*[1]怪物经验!C73</f>
         <v>0</v>
       </c>
-      <c r="D73" s="7">
-        <v>1</v>
-      </c>
-      <c r="E73" s="7">
+      <c r="D73" s="5">
+        <v>1</v>
+      </c>
+      <c r="E73" s="5">
         <v>1</v>
       </c>
       <c r="F73" s="1">
@@ -10945,7 +11833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -10956,10 +11844,10 @@
         <f>B74*[1]怪物经验!C74</f>
         <v>0</v>
       </c>
-      <c r="D74" s="7">
-        <v>1</v>
-      </c>
-      <c r="E74" s="7">
+      <c r="D74" s="5">
+        <v>1</v>
+      </c>
+      <c r="E74" s="5">
         <v>1</v>
       </c>
       <c r="F74" s="1">
@@ -10967,7 +11855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -10978,10 +11866,10 @@
         <f>B75*[1]怪物经验!C75</f>
         <v>0</v>
       </c>
-      <c r="D75" s="7">
-        <v>1</v>
-      </c>
-      <c r="E75" s="7">
+      <c r="D75" s="5">
+        <v>1</v>
+      </c>
+      <c r="E75" s="5">
         <v>1</v>
       </c>
       <c r="F75" s="1">
@@ -10989,7 +11877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -11000,10 +11888,10 @@
         <f>B76*[1]怪物经验!C76</f>
         <v>0</v>
       </c>
-      <c r="D76" s="7">
-        <v>1</v>
-      </c>
-      <c r="E76" s="7">
+      <c r="D76" s="5">
+        <v>1</v>
+      </c>
+      <c r="E76" s="5">
         <v>1</v>
       </c>
       <c r="F76" s="1">
@@ -11011,7 +11899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -11022,10 +11910,10 @@
         <f>B77*[1]怪物经验!C77</f>
         <v>0</v>
       </c>
-      <c r="D77" s="7">
-        <v>1</v>
-      </c>
-      <c r="E77" s="7">
+      <c r="D77" s="5">
+        <v>1</v>
+      </c>
+      <c r="E77" s="5">
         <v>1</v>
       </c>
       <c r="F77" s="1">
@@ -11033,7 +11921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -11044,10 +11932,10 @@
         <f>B78*[1]怪物经验!C78</f>
         <v>0</v>
       </c>
-      <c r="D78" s="7">
-        <v>1</v>
-      </c>
-      <c r="E78" s="7">
+      <c r="D78" s="5">
+        <v>1</v>
+      </c>
+      <c r="E78" s="5">
         <v>1</v>
       </c>
       <c r="F78" s="1">
@@ -11055,7 +11943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -11066,10 +11954,10 @@
         <f>B79*[1]怪物经验!C79</f>
         <v>0</v>
       </c>
-      <c r="D79" s="7">
-        <v>1</v>
-      </c>
-      <c r="E79" s="7">
+      <c r="D79" s="5">
+        <v>1</v>
+      </c>
+      <c r="E79" s="5">
         <v>1</v>
       </c>
       <c r="F79" s="1">
@@ -11077,7 +11965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -11088,10 +11976,10 @@
         <f>B80*[1]怪物经验!C80</f>
         <v>0</v>
       </c>
-      <c r="D80" s="7">
-        <v>1</v>
-      </c>
-      <c r="E80" s="7">
+      <c r="D80" s="5">
+        <v>1</v>
+      </c>
+      <c r="E80" s="5">
         <v>1</v>
       </c>
       <c r="F80" s="1">
@@ -11099,7 +11987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -11110,10 +11998,10 @@
         <f>B81*[1]怪物经验!C81</f>
         <v>0</v>
       </c>
-      <c r="D81" s="7">
-        <v>1</v>
-      </c>
-      <c r="E81" s="7">
+      <c r="D81" s="5">
+        <v>1</v>
+      </c>
+      <c r="E81" s="5">
         <v>1</v>
       </c>
       <c r="F81" s="1">
@@ -11121,7 +12009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -11132,10 +12020,10 @@
         <f>B82*[1]怪物经验!C82</f>
         <v>0</v>
       </c>
-      <c r="D82" s="7">
-        <v>1</v>
-      </c>
-      <c r="E82" s="7">
+      <c r="D82" s="5">
+        <v>1</v>
+      </c>
+      <c r="E82" s="5">
         <v>1</v>
       </c>
       <c r="F82" s="1">
@@ -11143,7 +12031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -11154,10 +12042,10 @@
         <f>B83*[1]怪物经验!C83</f>
         <v>0</v>
       </c>
-      <c r="D83" s="7">
-        <v>1</v>
-      </c>
-      <c r="E83" s="7">
+      <c r="D83" s="5">
+        <v>1</v>
+      </c>
+      <c r="E83" s="5">
         <v>1</v>
       </c>
       <c r="F83" s="1">
@@ -11165,7 +12053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -11176,10 +12064,10 @@
         <f>B84*[1]怪物经验!C84</f>
         <v>0</v>
       </c>
-      <c r="D84" s="7">
-        <v>1</v>
-      </c>
-      <c r="E84" s="7">
+      <c r="D84" s="5">
+        <v>1</v>
+      </c>
+      <c r="E84" s="5">
         <v>1</v>
       </c>
       <c r="F84" s="1">
@@ -11187,7 +12075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -11198,10 +12086,10 @@
         <f>B85*[1]怪物经验!C85</f>
         <v>0</v>
       </c>
-      <c r="D85" s="7">
-        <v>1</v>
-      </c>
-      <c r="E85" s="7">
+      <c r="D85" s="5">
+        <v>1</v>
+      </c>
+      <c r="E85" s="5">
         <v>1</v>
       </c>
       <c r="F85" s="1">
@@ -11209,7 +12097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -11220,10 +12108,10 @@
         <f>B86*[1]怪物经验!C86</f>
         <v>0</v>
       </c>
-      <c r="D86" s="7">
-        <v>1</v>
-      </c>
-      <c r="E86" s="7">
+      <c r="D86" s="5">
+        <v>1</v>
+      </c>
+      <c r="E86" s="5">
         <v>1</v>
       </c>
       <c r="F86" s="1">
@@ -11231,7 +12119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -11242,10 +12130,10 @@
         <f>B87*[1]怪物经验!C87</f>
         <v>0</v>
       </c>
-      <c r="D87" s="7">
-        <v>1</v>
-      </c>
-      <c r="E87" s="7">
+      <c r="D87" s="5">
+        <v>1</v>
+      </c>
+      <c r="E87" s="5">
         <v>1</v>
       </c>
       <c r="F87" s="1">
@@ -11253,7 +12141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -11264,10 +12152,10 @@
         <f>B88*[1]怪物经验!C88</f>
         <v>0</v>
       </c>
-      <c r="D88" s="7">
-        <v>1</v>
-      </c>
-      <c r="E88" s="7">
+      <c r="D88" s="5">
+        <v>1</v>
+      </c>
+      <c r="E88" s="5">
         <v>1</v>
       </c>
       <c r="F88" s="1">
@@ -11275,7 +12163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -11286,10 +12174,10 @@
         <f>B89*[1]怪物经验!C89</f>
         <v>0</v>
       </c>
-      <c r="D89" s="7">
-        <v>1</v>
-      </c>
-      <c r="E89" s="7">
+      <c r="D89" s="5">
+        <v>1</v>
+      </c>
+      <c r="E89" s="5">
         <v>1</v>
       </c>
       <c r="F89" s="1">
@@ -11297,7 +12185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -11308,10 +12196,10 @@
         <f>B90*[1]怪物经验!C90</f>
         <v>0</v>
       </c>
-      <c r="D90" s="7">
-        <v>1</v>
-      </c>
-      <c r="E90" s="7">
+      <c r="D90" s="5">
+        <v>1</v>
+      </c>
+      <c r="E90" s="5">
         <v>1</v>
       </c>
       <c r="F90" s="1">
@@ -11319,7 +12207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -11330,10 +12218,10 @@
         <f>B91*[1]怪物经验!C91</f>
         <v>0</v>
       </c>
-      <c r="D91" s="7">
-        <v>1</v>
-      </c>
-      <c r="E91" s="7">
+      <c r="D91" s="5">
+        <v>1</v>
+      </c>
+      <c r="E91" s="5">
         <v>1</v>
       </c>
       <c r="F91" s="1">
@@ -11341,7 +12229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -11352,10 +12240,10 @@
         <f>B92*[1]怪物经验!C92</f>
         <v>0</v>
       </c>
-      <c r="D92" s="7">
-        <v>1</v>
-      </c>
-      <c r="E92" s="7">
+      <c r="D92" s="5">
+        <v>1</v>
+      </c>
+      <c r="E92" s="5">
         <v>1</v>
       </c>
       <c r="F92" s="1">
@@ -11363,7 +12251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -11374,10 +12262,10 @@
         <f>B93*[1]怪物经验!C93</f>
         <v>0</v>
       </c>
-      <c r="D93" s="7">
-        <v>1</v>
-      </c>
-      <c r="E93" s="7">
+      <c r="D93" s="5">
+        <v>1</v>
+      </c>
+      <c r="E93" s="5">
         <v>1</v>
       </c>
       <c r="F93" s="1">
@@ -11385,7 +12273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -11396,10 +12284,10 @@
         <f>B94*[1]怪物经验!C94</f>
         <v>0</v>
       </c>
-      <c r="D94" s="7">
-        <v>1</v>
-      </c>
-      <c r="E94" s="7">
+      <c r="D94" s="5">
+        <v>1</v>
+      </c>
+      <c r="E94" s="5">
         <v>1</v>
       </c>
       <c r="F94" s="1">
@@ -11407,7 +12295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -11418,10 +12306,10 @@
         <f>B95*[1]怪物经验!C95</f>
         <v>0</v>
       </c>
-      <c r="D95" s="7">
-        <v>1</v>
-      </c>
-      <c r="E95" s="7">
+      <c r="D95" s="5">
+        <v>1</v>
+      </c>
+      <c r="E95" s="5">
         <v>1</v>
       </c>
       <c r="F95" s="1">
@@ -11429,7 +12317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -11440,10 +12328,10 @@
         <f>B96*[1]怪物经验!C96</f>
         <v>0</v>
       </c>
-      <c r="D96" s="7">
-        <v>1</v>
-      </c>
-      <c r="E96" s="7">
+      <c r="D96" s="5">
+        <v>1</v>
+      </c>
+      <c r="E96" s="5">
         <v>1</v>
       </c>
       <c r="F96" s="1">
@@ -11451,7 +12339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -11462,10 +12350,10 @@
         <f>B97*[1]怪物经验!C97</f>
         <v>0</v>
       </c>
-      <c r="D97" s="7">
-        <v>1</v>
-      </c>
-      <c r="E97" s="7">
+      <c r="D97" s="5">
+        <v>1</v>
+      </c>
+      <c r="E97" s="5">
         <v>1</v>
       </c>
       <c r="F97" s="1">
@@ -11473,7 +12361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -11484,10 +12372,10 @@
         <f>B98*[1]怪物经验!C98</f>
         <v>0</v>
       </c>
-      <c r="D98" s="7">
-        <v>1</v>
-      </c>
-      <c r="E98" s="7">
+      <c r="D98" s="5">
+        <v>1</v>
+      </c>
+      <c r="E98" s="5">
         <v>1</v>
       </c>
       <c r="F98" s="1">
@@ -11495,7 +12383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -11506,10 +12394,10 @@
         <f>B99*[1]怪物经验!C99</f>
         <v>0</v>
       </c>
-      <c r="D99" s="7">
-        <v>1</v>
-      </c>
-      <c r="E99" s="7">
+      <c r="D99" s="5">
+        <v>1</v>
+      </c>
+      <c r="E99" s="5">
         <v>1</v>
       </c>
       <c r="F99" s="1">
@@ -11517,7 +12405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -11528,10 +12416,10 @@
         <f>B100*[1]怪物经验!C100</f>
         <v>0</v>
       </c>
-      <c r="D100" s="7">
-        <v>1</v>
-      </c>
-      <c r="E100" s="7">
+      <c r="D100" s="5">
+        <v>1</v>
+      </c>
+      <c r="E100" s="5">
         <v>1</v>
       </c>
       <c r="F100" s="1">
@@ -11539,7 +12427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -11550,10 +12438,10 @@
         <f>B101*[1]怪物经验!C101</f>
         <v>0</v>
       </c>
-      <c r="D101" s="7">
-        <v>1</v>
-      </c>
-      <c r="E101" s="7">
+      <c r="D101" s="5">
+        <v>1</v>
+      </c>
+      <c r="E101" s="5">
         <v>1</v>
       </c>
       <c r="F101" s="1">
@@ -11561,23 +12449,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="103" s="1" customFormat="1" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="13" style="2" customWidth="1"/>
@@ -11587,42 +12476,42 @@
     <col min="16" max="16" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>40</v>
+    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
+      <c r="A2" s="1">
         <v>20</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <f>LOOKUP(A2,怪物经验!A:A,怪物经验!C:C)</f>
         <v>280</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1">
         <f>B2*C2</f>
         <v>280</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>20</v>
       </c>
       <c r="F2" s="1">
@@ -11641,28 +12530,28 @@
         <v>58800</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
+      <c r="A3" s="1">
         <v>30</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <f>LOOKUP(A3,怪物经验!A:A,怪物经验!C:C)</f>
         <v>580</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D5" si="0">B3*C3</f>
         <v>580</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>20</v>
       </c>
       <c r="F3" s="1">
@@ -11681,28 +12570,28 @@
         <v>121800</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="Q3" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:9">
+      <c r="A4" s="1">
         <v>40</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <f>LOOKUP(A4,怪物经验!A:A,怪物经验!C:C)</f>
         <v>880</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>20</v>
       </c>
       <c r="F4" s="1">
@@ -11721,22 +12610,22 @@
         <v>184800</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:9">
+      <c r="A5" s="1">
         <v>50</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <f>LOOKUP(A5,怪物经验!A:A,怪物经验!C:C)</f>
         <v>1180</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>1180</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>20</v>
       </c>
       <c r="F5" s="1">
@@ -11755,483 +12644,103 @@
         <v>247800</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-    </row>
-    <row r="62" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-    </row>
-    <row r="63" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-    </row>
-    <row r="65" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-    </row>
-    <row r="66" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-    </row>
-    <row r="67" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-    </row>
-    <row r="68" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-    </row>
-    <row r="69" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-    </row>
-    <row r="70" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-    </row>
-    <row r="71" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-    </row>
-    <row r="72" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-    </row>
-    <row r="73" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-    </row>
-    <row r="74" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-    </row>
-    <row r="75" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-    </row>
-    <row r="76" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-    </row>
-    <row r="77" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-    </row>
-    <row r="78" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-    </row>
-    <row r="79" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-    </row>
-    <row r="80" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-    </row>
-    <row r="81" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-    </row>
-    <row r="82" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-    </row>
-    <row r="83" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-    </row>
-    <row r="84" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-    </row>
-    <row r="85" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-    </row>
-    <row r="86" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-    </row>
-    <row r="87" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-    </row>
-    <row r="88" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-    </row>
-    <row r="89" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-    </row>
-    <row r="90" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-    </row>
-    <row r="91" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-    </row>
-    <row r="92" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-    </row>
-    <row r="93" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-    </row>
-    <row r="94" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-    </row>
-    <row r="95" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-    </row>
-    <row r="96" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-    </row>
-    <row r="97" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-    </row>
-    <row r="98" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-    </row>
-    <row r="99" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-    </row>
-    <row r="100" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-    </row>
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="31" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="34" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="35" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="36" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="37" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="38" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="44" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="45" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="46" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="47" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="48" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="49" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="50" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="51" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="52" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="53" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="54" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="55" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="56" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="57" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="58" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="59" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="60" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="61" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="62" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="63" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="64" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="65" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="66" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="67" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="68" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="69" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="70" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="71" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="72" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="73" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="74" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="75" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="76" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="77" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="78" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="79" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="80" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="81" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="82" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="83" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="84" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="85" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="86" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="87" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="88" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="89" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="90" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="91" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="92" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="93" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="94" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="95" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="96" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="97" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="98" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="99" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="100" s="1" customFormat="1" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/WeiJingShuZhi/经验表.xlsx
+++ b/WeiJingShuZhi/经验表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\WeiJingShuZhi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CC4A9E-10A3-462C-B39F-93EC0BA89159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
   <si>
     <t>等级</t>
   </si>
@@ -306,14 +312,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +325,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -332,6 +333,7 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -339,12 +341,14 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -353,6 +357,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -360,155 +365,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,198 +404,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -755,7 +438,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399151585436567"/>
+        <color theme="4" tint="0.39912106692709126"/>
       </top>
       <bottom style="hair">
         <color theme="1" tint="0.499984740745262"/>
@@ -775,254 +458,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1052,86 +493,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="13"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 6" xfId="1" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="总经验表"/>
@@ -1733,19 +1132,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
@@ -1757,29 +1156,29 @@
     <col min="17" max="17" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:11">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13" t="s">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1789,7 +1188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:18">
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1806,11 +1205,11 @@
       </c>
       <c r="E2" s="1">
         <f>D2/$R$4</f>
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F2" s="1">
         <f>SUM($E$2:E2)</f>
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G2" s="1">
         <f>D2*怪物经验!C2</f>
@@ -1830,7 +1229,7 @@
         <f>J2*E2</f>
         <v>0</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="13">
         <v>225</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -1840,7 +1239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:18">
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1861,7 +1260,7 @@
       </c>
       <c r="F3" s="1">
         <f>SUM($E$2:E3)</f>
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G3" s="1">
         <f>D3*怪物经验!C3</f>
@@ -1881,7 +1280,7 @@
         <f t="shared" ref="K3:K15" si="3">J3*E3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="13">
         <v>500</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -1891,7 +1290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:18">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1912,7 +1311,7 @@
       </c>
       <c r="F4" s="1">
         <f>SUM($E$2:E4)</f>
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G4" s="1">
         <f>D4*怪物经验!C4</f>
@@ -1932,7 +1331,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="13">
         <v>1125</v>
       </c>
       <c r="Q4" s="1" t="s">
@@ -1943,7 +1342,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:18">
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1964,7 +1363,7 @@
       </c>
       <c r="F5" s="1">
         <f>SUM($E$2:E5)</f>
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="G5" s="1">
         <f>D5*怪物经验!C5</f>
@@ -1984,7 +1383,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="13">
         <v>1350</v>
       </c>
       <c r="Q5" s="1" t="s">
@@ -1994,7 +1393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2035,11 +1434,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="13">
         <v>2600</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2057,7 +1456,7 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F7" s="1">
         <f>SUM($E$2:E7)</f>
@@ -2081,11 +1480,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="13">
         <v>4250</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:23">
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2106,7 +1505,7 @@
       </c>
       <c r="F8" s="1">
         <f>SUM($E$2:E8)</f>
-        <v>0.29</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="G8" s="1">
         <f>D8*怪物经验!C8</f>
@@ -2126,7 +1525,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="13">
         <v>6600</v>
       </c>
       <c r="Q8" s="1" t="s">
@@ -2149,7 +1548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:23">
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2191,7 +1590,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="13">
         <v>8400</v>
       </c>
       <c r="R9" s="1" t="s">
@@ -2210,7 +1609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:23">
+    <row r="10" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2252,7 +1651,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="13">
         <v>10000</v>
       </c>
       <c r="R10" s="1" t="s">
@@ -2271,7 +1670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:23">
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2313,7 +1712,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="13">
         <v>12825</v>
       </c>
       <c r="R11" s="1" t="s">
@@ -2333,7 +1732,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:21">
+    <row r="12" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2351,7 +1750,7 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F12" s="1">
         <f>SUM($E$2:E12)</f>
@@ -2375,7 +1774,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="13">
         <v>16060</v>
       </c>
       <c r="T12" s="1" t="s">
@@ -2385,7 +1784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:21">
+    <row r="13" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2407,7 +1806,7 @@
       </c>
       <c r="F13" s="1">
         <f>SUM($E$2:E13)</f>
-        <v>0.94</v>
+        <v>0.94000000000000006</v>
       </c>
       <c r="G13" s="1">
         <f>D13*怪物经验!C13</f>
@@ -2427,7 +1826,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="13">
         <v>19500</v>
       </c>
       <c r="T13" s="1" t="s">
@@ -2437,7 +1836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:21">
+    <row r="14" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2459,7 +1858,7 @@
       </c>
       <c r="F14" s="1">
         <f>SUM($E$2:E14)</f>
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G14" s="1">
         <f>D14*怪物经验!C14</f>
@@ -2479,7 +1878,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="13">
         <v>22400</v>
       </c>
       <c r="S14" s="1">
@@ -2493,7 +1892,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="15" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2535,11 +1934,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="13">
         <v>27280</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:21">
+    <row r="16" spans="1:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2581,7 +1980,7 @@
         <f>J16*E16*$R$5</f>
         <v>29400</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="13">
         <v>47420</v>
       </c>
       <c r="T16" s="1" t="s">
@@ -2592,7 +1991,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2614,7 +2013,7 @@
       </c>
       <c r="F17" s="1">
         <f>SUM($E$2:E17)</f>
-        <v>1.48</v>
+        <v>1.4800000000000002</v>
       </c>
       <c r="G17" s="1">
         <f>D17*怪物经验!C17</f>
@@ -2635,11 +2034,11 @@
         <f t="shared" ref="K17:K71" si="5">J17*E17*$R$5</f>
         <v>32340</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="13">
         <v>54380</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2682,11 +2081,11 @@
         <f t="shared" si="5"/>
         <v>35280</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M18" s="13">
         <v>61740</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2729,11 +2128,11 @@
         <f t="shared" si="5"/>
         <v>38220</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M19" s="13">
         <v>69500</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2775,11 +2174,11 @@
         <f t="shared" si="5"/>
         <v>58800</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="13">
         <v>110300</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2822,11 +2221,11 @@
         <f t="shared" si="5"/>
         <v>61740</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M21" s="13">
         <v>122220</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2848,7 +2247,7 @@
       </c>
       <c r="F22" s="1">
         <f>SUM($E$2:E22)</f>
-        <v>2.36</v>
+        <v>2.3600000000000003</v>
       </c>
       <c r="G22" s="1">
         <f>D22*怪物经验!C22</f>
@@ -2869,11 +2268,11 @@
         <f t="shared" si="5"/>
         <v>64680</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="14">
         <v>135050</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2895,7 +2294,7 @@
       </c>
       <c r="F23" s="1">
         <f>SUM($E$2:E23)</f>
-        <v>2.59</v>
+        <v>2.5900000000000003</v>
       </c>
       <c r="G23" s="1">
         <f>D23*怪物经验!C23</f>
@@ -2916,11 +2315,11 @@
         <f t="shared" si="5"/>
         <v>67620</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M23" s="14">
         <v>148200</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2963,11 +2362,11 @@
         <f t="shared" si="5"/>
         <v>70560</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M24" s="14">
         <v>161950</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3010,11 +2409,11 @@
         <f t="shared" si="5"/>
         <v>73500</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="14">
         <v>176300</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3057,11 +2456,11 @@
         <f t="shared" si="5"/>
         <v>76440</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M26" s="14">
         <v>191250</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3102,13 +2501,13 @@
       </c>
       <c r="K27" s="1">
         <f t="shared" si="5"/>
-        <v>79380</v>
-      </c>
-      <c r="M27" s="15">
+        <v>79380.000000000015</v>
+      </c>
+      <c r="M27" s="14">
         <v>207260</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3126,11 +2525,11 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" si="2"/>
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F28" s="1">
         <f>SUM($E$2:E28)</f>
-        <v>3.89</v>
+        <v>3.8899999999999997</v>
       </c>
       <c r="G28" s="1">
         <f>D28*怪物经验!C28</f>
@@ -3151,11 +2550,11 @@
         <f t="shared" si="5"/>
         <v>82320</v>
       </c>
-      <c r="M28" s="15">
+      <c r="M28" s="14">
         <v>223440</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3173,7 +2572,7 @@
       </c>
       <c r="E29" s="1">
         <f t="shared" si="2"/>
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F29" s="1">
         <f>SUM($E$2:E29)</f>
@@ -3198,11 +2597,11 @@
         <f t="shared" si="5"/>
         <v>85260</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M29" s="14">
         <v>240220</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="30" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3223,7 +2622,7 @@
       </c>
       <c r="F30" s="1">
         <f>SUM($E$2:E30)</f>
-        <v>4.53</v>
+        <v>4.5299999999999994</v>
       </c>
       <c r="G30" s="1">
         <f>D30*怪物经验!C30</f>
@@ -3244,11 +2643,11 @@
         <f t="shared" si="5"/>
         <v>102900</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M30" s="14">
         <v>299800</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3270,7 +2669,7 @@
       </c>
       <c r="F31" s="1">
         <f>SUM($E$2:E31)</f>
-        <v>4.89</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="G31" s="1">
         <f>D31*怪物经验!C31</f>
@@ -3291,11 +2690,11 @@
         <f t="shared" si="5"/>
         <v>219240</v>
       </c>
-      <c r="M31" s="15">
+      <c r="M31" s="14">
         <v>432680</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="32" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3338,11 +2737,11 @@
         <f t="shared" si="5"/>
         <v>225330</v>
       </c>
-      <c r="M32" s="15">
+      <c r="M32" s="14">
         <v>456520</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="33" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3385,11 +2784,11 @@
         <f t="shared" si="5"/>
         <v>231420</v>
       </c>
-      <c r="M33" s="15">
+      <c r="M33" s="14">
         <v>480380</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="34" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3411,7 +2810,7 @@
       </c>
       <c r="F34" s="1">
         <f>SUM($E$2:E34)</f>
-        <v>6.03</v>
+        <v>6.0299999999999994</v>
       </c>
       <c r="G34" s="1">
         <f>D34*怪物经验!C34</f>
@@ -3432,11 +2831,11 @@
         <f t="shared" si="5"/>
         <v>237510</v>
       </c>
-      <c r="M34" s="15">
+      <c r="M34" s="14">
         <v>504840</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="35" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3479,11 +2878,11 @@
         <f t="shared" si="5"/>
         <v>243600</v>
       </c>
-      <c r="M35" s="15">
+      <c r="M35" s="14">
         <v>529900</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="36" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3526,11 +2925,11 @@
         <f t="shared" si="5"/>
         <v>249690</v>
       </c>
-      <c r="M36" s="15">
+      <c r="M36" s="14">
         <v>555560</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="37" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3573,11 +2972,11 @@
         <f t="shared" si="5"/>
         <v>255780</v>
       </c>
-      <c r="M37" s="15">
+      <c r="M37" s="14">
         <v>582580</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="38" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3599,7 +2998,7 @@
       </c>
       <c r="F38" s="1">
         <f>SUM($E$2:E38)</f>
-        <v>7.69</v>
+        <v>7.6899999999999995</v>
       </c>
       <c r="G38" s="1">
         <f>D38*怪物经验!C38</f>
@@ -3620,11 +3019,11 @@
         <f t="shared" si="5"/>
         <v>261870</v>
       </c>
-      <c r="M38" s="15">
+      <c r="M38" s="14">
         <v>609470</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="39" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3646,7 +3045,7 @@
       </c>
       <c r="F39" s="1">
         <f>SUM($E$2:E39)</f>
-        <v>8.13</v>
+        <v>8.129999999999999</v>
       </c>
       <c r="G39" s="1">
         <f>D39*怪物经验!C39</f>
@@ -3667,11 +3066,11 @@
         <f t="shared" si="5"/>
         <v>267960</v>
       </c>
-      <c r="M39" s="15">
+      <c r="M39" s="14">
         <v>636960</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="40" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3692,7 +3091,7 @@
       </c>
       <c r="F40" s="1">
         <f>SUM($E$2:E40)</f>
-        <v>8.63</v>
+        <v>8.629999999999999</v>
       </c>
       <c r="G40" s="1">
         <f>D40*怪物经验!C40</f>
@@ -3713,11 +3112,11 @@
         <f t="shared" si="5"/>
         <v>304500</v>
       </c>
-      <c r="M40" s="15">
+      <c r="M40" s="14">
         <v>738000</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="41" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3739,7 +3138,7 @@
       </c>
       <c r="F41" s="1">
         <f>SUM($E$2:E41)</f>
-        <v>9.14</v>
+        <v>9.1399999999999988</v>
       </c>
       <c r="G41" s="1">
         <f>D41*怪物经验!C41</f>
@@ -3760,11 +3159,11 @@
         <f t="shared" si="5"/>
         <v>471240</v>
       </c>
-      <c r="M41" s="15">
+      <c r="M41" s="14">
         <v>928840</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="42" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3786,7 +3185,7 @@
       </c>
       <c r="F42" s="1">
         <f>SUM($E$2:E42)</f>
-        <v>9.66</v>
+        <v>9.6599999999999984</v>
       </c>
       <c r="G42" s="1">
         <f>D42*怪物经验!C42</f>
@@ -3807,11 +3206,11 @@
         <f t="shared" si="5"/>
         <v>480480</v>
       </c>
-      <c r="M42" s="15">
+      <c r="M42" s="14">
         <v>962780</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="43" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3833,7 +3232,7 @@
       </c>
       <c r="F43" s="1">
         <f>SUM($E$2:E43)</f>
-        <v>10.19</v>
+        <v>10.189999999999998</v>
       </c>
       <c r="G43" s="1">
         <f>D43*怪物经验!C43</f>
@@ -3854,11 +3253,11 @@
         <f t="shared" si="5"/>
         <v>489720</v>
       </c>
-      <c r="M43" s="15">
+      <c r="M43" s="14">
         <v>997320</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="44" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3880,7 +3279,7 @@
       </c>
       <c r="F44" s="1">
         <f>SUM($E$2:E44)</f>
-        <v>10.73</v>
+        <v>10.729999999999997</v>
       </c>
       <c r="G44" s="1">
         <f>D44*怪物经验!C44</f>
@@ -3901,11 +3300,11 @@
         <f t="shared" si="5"/>
         <v>498960</v>
       </c>
-      <c r="M44" s="15">
+      <c r="M44" s="14">
         <v>1032460</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="45" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3923,11 +3322,11 @@
       </c>
       <c r="E45" s="1">
         <f t="shared" si="2"/>
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F45" s="1">
         <f>SUM($E$2:E45)</f>
-        <v>11.28</v>
+        <v>11.279999999999998</v>
       </c>
       <c r="G45" s="1">
         <f>D45*怪物经验!C45</f>
@@ -3946,13 +3345,13 @@
       </c>
       <c r="K45" s="1">
         <f t="shared" si="5"/>
-        <v>508200</v>
-      </c>
-      <c r="M45" s="15">
+        <v>508200.00000000006</v>
+      </c>
+      <c r="M45" s="14">
         <v>1068200</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="46" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3970,11 +3369,11 @@
       </c>
       <c r="E46" s="1">
         <f t="shared" si="2"/>
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F46" s="1">
         <f>SUM($E$2:E46)</f>
-        <v>11.84</v>
+        <v>11.839999999999998</v>
       </c>
       <c r="G46" s="1">
         <f>D46*怪物经验!C46</f>
@@ -3993,13 +3392,13 @@
       </c>
       <c r="K46" s="1">
         <f t="shared" si="5"/>
-        <v>517440</v>
-      </c>
-      <c r="M46" s="15">
+        <v>517440.00000000006</v>
+      </c>
+      <c r="M46" s="14">
         <v>1104540</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="47" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4017,11 +3416,11 @@
       </c>
       <c r="E47" s="1">
         <f t="shared" si="2"/>
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F47" s="1">
         <f>SUM($E$2:E47)</f>
-        <v>12.41</v>
+        <v>12.409999999999998</v>
       </c>
       <c r="G47" s="1">
         <f>D47*怪物经验!C47</f>
@@ -4040,13 +3439,13 @@
       </c>
       <c r="K47" s="1">
         <f t="shared" si="5"/>
-        <v>526680</v>
-      </c>
-      <c r="M47" s="15">
+        <v>526679.99999999988</v>
+      </c>
+      <c r="M47" s="14">
         <v>1141480</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="48" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4064,11 +3463,11 @@
       </c>
       <c r="E48" s="1">
         <f t="shared" si="2"/>
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F48" s="1">
         <f>SUM($E$2:E48)</f>
-        <v>12.99</v>
+        <v>12.989999999999998</v>
       </c>
       <c r="G48" s="1">
         <f>D48*怪物经验!C48</f>
@@ -4087,13 +3486,13 @@
       </c>
       <c r="K48" s="1">
         <f t="shared" si="5"/>
-        <v>535920</v>
-      </c>
-      <c r="M48" s="15">
+        <v>535919.99999999988</v>
+      </c>
+      <c r="M48" s="14">
         <v>1179020</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="49" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4115,7 +3514,7 @@
       </c>
       <c r="F49" s="1">
         <f>SUM($E$2:E49)</f>
-        <v>13.58</v>
+        <v>13.579999999999998</v>
       </c>
       <c r="G49" s="1">
         <f>D49*怪物经验!C49</f>
@@ -4136,11 +3535,11 @@
         <f t="shared" si="5"/>
         <v>545160</v>
       </c>
-      <c r="M49" s="15">
+      <c r="M49" s="14">
         <v>1217160</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="50" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4161,7 +3560,7 @@
       </c>
       <c r="F50" s="1">
         <f>SUM($E$2:E50)</f>
-        <v>14.28</v>
+        <v>14.279999999999998</v>
       </c>
       <c r="G50" s="1">
         <f>D50*怪物经验!C50</f>
@@ -4180,13 +3579,13 @@
       </c>
       <c r="K50" s="1">
         <f t="shared" si="5"/>
-        <v>646800</v>
-      </c>
-      <c r="M50" s="15">
+        <v>646799.99999999988</v>
+      </c>
+      <c r="M50" s="14">
         <v>1463300</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="51" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4208,7 +3607,7 @@
       </c>
       <c r="F51" s="1">
         <f>SUM($E$2:E51)</f>
-        <v>15.03</v>
+        <v>15.029999999999998</v>
       </c>
       <c r="G51" s="1">
         <f>D51*怪物经验!C51</f>
@@ -4229,11 +3628,11 @@
         <f t="shared" si="5"/>
         <v>929250</v>
       </c>
-      <c r="M51" s="15">
+      <c r="M51" s="14">
         <v>1826050</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="52" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4255,7 +3654,7 @@
       </c>
       <c r="F52" s="1">
         <f>SUM($E$2:E52)</f>
-        <v>15.83</v>
+        <v>15.829999999999998</v>
       </c>
       <c r="G52" s="1">
         <f>D52*怪物经验!C52</f>
@@ -4276,11 +3675,11 @@
         <f t="shared" si="5"/>
         <v>991200</v>
       </c>
-      <c r="M52" s="15">
+      <c r="M52" s="14">
         <v>1971300</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="53" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4302,7 +3701,7 @@
       </c>
       <c r="F53" s="1">
         <f>SUM($E$2:E53)</f>
-        <v>16.73</v>
+        <v>16.729999999999997</v>
       </c>
       <c r="G53" s="1">
         <f>D53*怪物经验!C53</f>
@@ -4323,11 +3722,11 @@
         <f t="shared" si="5"/>
         <v>1115100</v>
       </c>
-      <c r="M53" s="15">
+      <c r="M53" s="14">
         <v>2119550</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="54" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4349,7 +3748,7 @@
       </c>
       <c r="F54" s="1">
         <f>SUM($E$2:E54)</f>
-        <v>17.73</v>
+        <v>17.729999999999997</v>
       </c>
       <c r="G54" s="1">
         <f>D54*怪物经验!C54</f>
@@ -4370,11 +3769,11 @@
         <f t="shared" si="5"/>
         <v>1239000</v>
       </c>
-      <c r="M54" s="15">
+      <c r="M54" s="14">
         <v>2270800</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="55" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4392,11 +3791,11 @@
       </c>
       <c r="E55" s="1">
         <f t="shared" si="2"/>
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F55" s="1">
         <f>SUM($E$2:E55)</f>
-        <v>18.83</v>
+        <v>18.829999999999998</v>
       </c>
       <c r="G55" s="1">
         <f>D55*怪物经验!C55</f>
@@ -4417,11 +3816,11 @@
         <f t="shared" si="5"/>
         <v>1362900</v>
       </c>
-      <c r="M55" s="15">
+      <c r="M55" s="14">
         <v>2425050</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="56" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4443,7 +3842,7 @@
       </c>
       <c r="F56" s="1">
         <f>SUM($E$2:E56)</f>
-        <v>20.03</v>
+        <v>20.029999999999998</v>
       </c>
       <c r="G56" s="1">
         <f>D56*怪物经验!C56</f>
@@ -4464,11 +3863,11 @@
         <f t="shared" si="5"/>
         <v>1486800</v>
       </c>
-      <c r="M56" s="15">
+      <c r="M56" s="14">
         <v>2582300</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="57" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4511,11 +3910,11 @@
         <f t="shared" si="5"/>
         <v>1610700</v>
       </c>
-      <c r="M57" s="15">
+      <c r="M57" s="14">
         <v>2742550</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="58" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4537,7 +3936,7 @@
       </c>
       <c r="F58" s="1">
         <f>SUM($E$2:E58)</f>
-        <v>22.73</v>
+        <v>22.729999999999997</v>
       </c>
       <c r="G58" s="1">
         <f>D58*怪物经验!C58</f>
@@ -4558,11 +3957,11 @@
         <f t="shared" si="5"/>
         <v>1734600</v>
       </c>
-      <c r="M58" s="15">
+      <c r="M58" s="14">
         <v>2905800</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="59" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4605,11 +4004,11 @@
         <f t="shared" si="5"/>
         <v>1982400</v>
       </c>
-      <c r="M59" s="15">
+      <c r="M59" s="14">
         <v>3072050</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="60" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4652,11 +4051,11 @@
         <f t="shared" si="5"/>
         <v>2230200</v>
       </c>
-      <c r="M60" s="15">
+      <c r="M60" s="14">
         <v>3241300</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="61" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4699,11 +4098,11 @@
         <f t="shared" si="5"/>
         <v>2478000</v>
       </c>
-      <c r="M61" s="15">
+      <c r="M61" s="14">
         <v>3413550</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="62" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4746,11 +4145,11 @@
         <f t="shared" si="5"/>
         <v>3097500</v>
       </c>
-      <c r="M62" s="15">
+      <c r="M62" s="14">
         <v>4825850</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="63" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4793,11 +4192,11 @@
         <f t="shared" si="5"/>
         <v>4088700</v>
       </c>
-      <c r="M63" s="15">
+      <c r="M63" s="14">
         <v>6268150</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="64" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4819,7 +4218,7 @@
       </c>
       <c r="F64" s="1">
         <f>SUM($E$2:E64)</f>
-        <v>38.23</v>
+        <v>38.229999999999997</v>
       </c>
       <c r="G64" s="1">
         <f>D64*怪物经验!C64</f>
@@ -4840,11 +4239,11 @@
         <f t="shared" si="5"/>
         <v>5327700</v>
       </c>
-      <c r="M64" s="15">
+      <c r="M64" s="14">
         <v>7740450</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="65" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4887,11 +4286,11 @@
         <f t="shared" si="5"/>
         <v>6814500</v>
       </c>
-      <c r="M65" s="15">
+      <c r="M65" s="14">
         <v>9242750</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="66" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4934,11 +4333,11 @@
         <f t="shared" si="5"/>
         <v>8673000</v>
       </c>
-      <c r="M66" s="15">
+      <c r="M66" s="14">
         <v>10775050</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="67" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4981,11 +4380,11 @@
         <f t="shared" si="5"/>
         <v>11151000</v>
       </c>
-      <c r="M67" s="15">
+      <c r="M67" s="14">
         <v>13770250</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="68" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -5007,7 +4406,7 @@
       </c>
       <c r="F68" s="1">
         <f>SUM($E$2:E68)</f>
-        <v>71.73</v>
+        <v>71.72999999999999</v>
       </c>
       <c r="G68" s="1">
         <f>D68*怪物经验!C68</f>
@@ -5028,11 +4427,11 @@
         <f t="shared" si="5"/>
         <v>14868000</v>
       </c>
-      <c r="M68" s="15">
+      <c r="M68" s="14">
         <v>16841750</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="69" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -5054,7 +4453,7 @@
       </c>
       <c r="F69" s="1">
         <f>SUM($E$2:E69)</f>
-        <v>87.73</v>
+        <v>87.72999999999999</v>
       </c>
       <c r="G69" s="1">
         <f>D69*怪物经验!C69</f>
@@ -5075,11 +4474,11 @@
         <f t="shared" si="5"/>
         <v>19824000</v>
       </c>
-      <c r="M69" s="15">
+      <c r="M69" s="14">
         <v>21452750</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="70" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -5100,7 +4499,7 @@
       </c>
       <c r="F70" s="1">
         <f>SUM($E$2:E70)</f>
-        <v>107.73</v>
+        <v>107.72999999999999</v>
       </c>
       <c r="G70" s="1">
         <f>D70*怪物经验!C70</f>
@@ -5121,11 +4520,11 @@
         <f t="shared" si="5"/>
         <v>24780000</v>
       </c>
-      <c r="M70" s="15">
+      <c r="M70" s="14">
         <v>29890000</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+    <row r="71" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -5146,7 +4545,7 @@
       </c>
       <c r="F71" s="1">
         <f>SUM($E$2:E71)</f>
-        <v>132.73</v>
+        <v>132.72999999999999</v>
       </c>
       <c r="G71" s="1">
         <f>D71*怪物经验!C71</f>
@@ -5167,27 +4566,26 @@
         <f t="shared" si="5"/>
         <v>30975000</v>
       </c>
-      <c r="M71" s="15">
+      <c r="M71" s="14">
         <v>34718500</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:Z60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="U40" sqref="U40:U45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.375" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
@@ -5195,8 +4593,8 @@
     <col min="13" max="13" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:25">
+    <row r="1" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5252,7 +4650,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:25">
+    <row r="3" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -5317,7 +4715,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:25">
+    <row r="4" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -5326,7 +4724,7 @@
         <v>900</v>
       </c>
       <c r="D4" s="1">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ref="E4:E12" si="1">D4*C4</f>
@@ -5371,7 +4769,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:25">
+    <row r="5" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -5419,7 +4817,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:25">
+    <row r="6" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -5429,7 +4827,7 @@
       </c>
       <c r="D6" s="1">
         <f>D5+0.6</f>
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
@@ -5468,7 +4866,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:25">
+    <row r="7" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -5478,11 +4876,11 @@
       </c>
       <c r="D7" s="1">
         <f>D6+0.65</f>
-        <v>2.95</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>3982.5</v>
+        <v>3982.4999999999995</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="2"/>
@@ -5517,7 +4915,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:25">
+    <row r="8" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -5527,11 +4925,11 @@
       </c>
       <c r="D8" s="1">
         <f>D7+0.7</f>
-        <v>3.65</v>
+        <v>3.6499999999999995</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>5475</v>
+        <v>5474.9999999999991</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="2"/>
@@ -5566,7 +4964,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:25">
+    <row r="9" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -5615,7 +5013,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:25">
+    <row r="10" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -5664,7 +5062,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:25">
+    <row r="11" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -5713,7 +5111,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:25">
+    <row r="12" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -5762,8 +5160,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="4:24">
+    <row r="13" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D14" s="1">
         <f>SUM(D3:D11)</f>
         <v>29.4</v>
@@ -5773,7 +5171,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="23:24">
+    <row r="15" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="W15" s="1" t="s">
         <v>39</v>
       </c>
@@ -5782,12 +5180,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="13:13">
+    <row r="16" spans="2:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M16" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="13:24">
+    <row r="17" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M17" s="1" t="s">
         <v>41</v>
       </c>
@@ -5810,7 +5208,7 @@
         <v>100203;300</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="13:24">
+    <row r="18" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M18" s="1" t="s">
         <v>42</v>
       </c>
@@ -5837,7 +5235,7 @@
         <v>100203;600</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:24">
+    <row r="19" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
@@ -5867,7 +5265,7 @@
         <v>100203;1200</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:24">
+    <row r="20" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>1</v>
       </c>
@@ -5900,7 +5298,7 @@
         <v>100203;2100</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:24">
+    <row r="21" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>2</v>
       </c>
@@ -5933,7 +5331,7 @@
         <v>100203;3000</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:24">
+    <row r="22" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>3</v>
       </c>
@@ -5960,7 +5358,7 @@
         <v>100203;4200</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="15:24">
+    <row r="23" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O23" s="1">
         <v>7</v>
       </c>
@@ -5984,7 +5382,7 @@
         <v>100203;5400</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="15:24">
+    <row r="24" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O24" s="1">
         <v>8</v>
       </c>
@@ -6008,7 +5406,7 @@
         <v>100203;7200</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="15:24">
+    <row r="25" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O25" s="1">
         <v>9</v>
       </c>
@@ -6032,7 +5430,7 @@
         <v>100203;9000</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="15:24">
+    <row r="26" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O26" s="1">
         <v>10</v>
       </c>
@@ -6056,13 +5454,13 @@
         <v>100203;10800</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="10:10">
+    <row r="27" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J27" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
+    <row r="28" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>32</v>
       </c>
@@ -6073,7 +5471,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:11">
+    <row r="30" spans="2:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
         <v>1</v>
       </c>
@@ -6093,7 +5491,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+    <row r="31" spans="2:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
         <v>2</v>
       </c>
@@ -6107,7 +5505,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:21">
+    <row r="32" spans="2:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="1">
         <v>3</v>
       </c>
@@ -6128,8 +5526,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C33" s="16" t="s">
+    <row r="33" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="1">
@@ -6146,8 +5544,8 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="34" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C34" s="17" t="s">
+    <row r="34" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D34" s="1">
@@ -6160,7 +5558,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+    <row r="35" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>60</v>
       </c>
@@ -6174,347 +5572,345 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" s="3" customFormat="1" ht="20.1" customHeight="1" spans="10:10">
+    <row r="36" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J36" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" s="3" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="38" s="3" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="39" s="3" customFormat="1" ht="20.1" customHeight="1" spans="15:26">
-      <c r="O39" s="11" t="s">
+    <row r="37" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O39" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="P39" s="11">
+      <c r="P39" s="1">
         <v>0.15</v>
       </c>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11">
-        <v>0.225</v>
-      </c>
-      <c r="U39" s="11" t="s">
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="U39" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="V39" s="11"/>
-      <c r="X39" s="11" t="s">
+      <c r="V39" s="1"/>
+      <c r="X39" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y39" s="11">
+      <c r="Y39" s="1">
         <v>0.3</v>
       </c>
-      <c r="Z39" s="11"/>
-    </row>
-    <row r="40" s="3" customFormat="1" ht="20.1" customHeight="1" spans="9:26">
-      <c r="I40" s="12" t="s">
+      <c r="Z39" s="1"/>
+    </row>
+    <row r="40" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I40" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J40" s="3"/>
-      <c r="L40" s="11">
+      <c r="L40" s="1">
         <v>2500</v>
       </c>
-      <c r="M40" s="11"/>
-      <c r="O40" s="11">
+      <c r="M40" s="1"/>
+      <c r="O40" s="1">
         <v>10000</v>
       </c>
-      <c r="P40" s="11">
-        <f>O40*$P$39</f>
+      <c r="P40" s="1">
+        <f t="shared" ref="P40:P45" si="12">O40*$P$39</f>
         <v>1500</v>
       </c>
-      <c r="Q40" s="11">
+      <c r="Q40" s="1">
         <v>2000</v>
       </c>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11">
-        <f>O40*$T$39</f>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1">
+        <f t="shared" ref="T40:T45" si="13">O40*$T$39</f>
         <v>2250</v>
       </c>
-      <c r="U40" s="11">
-        <f>T40</f>
+      <c r="U40" s="1">
+        <f t="shared" ref="U40:U45" si="14">T40</f>
         <v>2250</v>
       </c>
-      <c r="V40" s="11"/>
-      <c r="Y40" s="11">
-        <f>O40*$Y$39</f>
+      <c r="V40" s="1"/>
+      <c r="Y40" s="1">
+        <f t="shared" ref="Y40:Y45" si="15">O40*$Y$39</f>
         <v>3000</v>
       </c>
-      <c r="Z40" s="11">
-        <f>Y40/12</f>
+      <c r="Z40" s="1">
+        <f t="shared" ref="Z40:Z45" si="16">Y40/12</f>
         <v>250</v>
       </c>
     </row>
-    <row r="41" s="3" customFormat="1" ht="20.1" customHeight="1" spans="9:26">
-      <c r="I41" s="12" t="s">
+    <row r="41" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I41" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="L41" s="11">
+      <c r="L41" s="1">
         <v>4000</v>
       </c>
-      <c r="M41" s="11">
-        <f t="shared" ref="M41:M45" si="12">L41-L40</f>
+      <c r="M41" s="1">
+        <f t="shared" ref="M41:M45" si="17">L41-L40</f>
         <v>1500</v>
       </c>
-      <c r="O41" s="11">
+      <c r="O41" s="1">
         <v>20000</v>
       </c>
-      <c r="P41" s="11">
-        <f>O41*$P$39</f>
+      <c r="P41" s="1">
+        <f t="shared" si="12"/>
         <v>3000</v>
       </c>
-      <c r="Q41" s="11">
+      <c r="Q41" s="1">
         <v>4000</v>
       </c>
-      <c r="R41" s="11">
-        <f t="shared" ref="R41:R45" si="13">Q41-Q40</f>
+      <c r="R41" s="1">
+        <f t="shared" ref="R41:R45" si="18">Q41-Q40</f>
         <v>2000</v>
       </c>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11">
-        <f>O41*$T$39</f>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1">
+        <f t="shared" si="13"/>
         <v>4500</v>
       </c>
-      <c r="U41" s="11">
-        <f>T41</f>
+      <c r="U41" s="1">
+        <f t="shared" si="14"/>
         <v>4500</v>
       </c>
-      <c r="V41" s="11">
+      <c r="V41" s="1">
         <f>U41-U40</f>
         <v>2250</v>
       </c>
-      <c r="Y41" s="11">
-        <f>O41*$Y$39</f>
+      <c r="Y41" s="1">
+        <f t="shared" si="15"/>
         <v>6000</v>
       </c>
-      <c r="Z41" s="11">
-        <f>Y41/12</f>
+      <c r="Z41" s="1">
+        <f t="shared" si="16"/>
         <v>500</v>
       </c>
     </row>
-    <row r="42" s="3" customFormat="1" ht="20.1" customHeight="1" spans="9:26">
-      <c r="I42" s="12" t="s">
+    <row r="42" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I42" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L42" s="1">
         <v>6000</v>
       </c>
-      <c r="M42" s="11">
+      <c r="M42" s="1">
+        <f t="shared" si="17"/>
+        <v>2000</v>
+      </c>
+      <c r="O42" s="1">
+        <v>40000</v>
+      </c>
+      <c r="P42" s="1">
         <f t="shared" si="12"/>
-        <v>2000</v>
-      </c>
-      <c r="O42" s="11">
-        <v>40000</v>
-      </c>
-      <c r="P42" s="11">
-        <f>O42*$P$39</f>
         <v>6000</v>
       </c>
-      <c r="Q42" s="11">
+      <c r="Q42" s="1">
         <v>7500</v>
       </c>
-      <c r="R42" s="11">
+      <c r="R42" s="1">
+        <f t="shared" si="18"/>
+        <v>3500</v>
+      </c>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1">
         <f t="shared" si="13"/>
-        <v>3500</v>
-      </c>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11">
-        <f>O42*$T$39</f>
         <v>9000</v>
       </c>
-      <c r="U42" s="11">
-        <f>T42</f>
+      <c r="U42" s="1">
+        <f t="shared" si="14"/>
         <v>9000</v>
       </c>
-      <c r="V42" s="11">
+      <c r="V42" s="1">
         <f>U42-U41</f>
         <v>4500</v>
       </c>
-      <c r="Y42" s="11">
-        <f>O42*$Y$39</f>
+      <c r="Y42" s="1">
+        <f t="shared" si="15"/>
         <v>12000</v>
       </c>
-      <c r="Z42" s="11">
-        <f>Y42/12</f>
+      <c r="Z42" s="1">
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="43" s="3" customFormat="1" ht="20.1" customHeight="1" spans="9:26">
-      <c r="I43" s="12" t="s">
+    <row r="43" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I43" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="L43" s="11">
+      <c r="L43" s="1">
         <v>9000</v>
       </c>
-      <c r="M43" s="11">
+      <c r="M43" s="1">
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+      <c r="O43" s="1">
+        <v>60000</v>
+      </c>
+      <c r="P43" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
-      </c>
-      <c r="O43" s="11">
-        <v>60000</v>
-      </c>
-      <c r="P43" s="11">
-        <f>O43*$P$39</f>
         <v>9000</v>
       </c>
-      <c r="Q43" s="11">
+      <c r="Q43" s="1">
         <v>12000</v>
       </c>
-      <c r="R43" s="11">
+      <c r="R43" s="1">
+        <f t="shared" si="18"/>
+        <v>4500</v>
+      </c>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1">
         <f t="shared" si="13"/>
-        <v>4500</v>
-      </c>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11">
-        <f>O43*$T$39</f>
         <v>13500</v>
       </c>
-      <c r="U43" s="11">
-        <f>T43</f>
+      <c r="U43" s="1">
+        <f t="shared" si="14"/>
         <v>13500</v>
       </c>
-      <c r="V43" s="11">
+      <c r="V43" s="1">
         <f>U43-U42</f>
         <v>4500</v>
       </c>
-      <c r="Y43" s="11">
-        <f>O43*$Y$39</f>
+      <c r="Y43" s="1">
+        <f t="shared" si="15"/>
         <v>18000</v>
       </c>
-      <c r="Z43" s="11">
-        <f>Y43/12</f>
+      <c r="Z43" s="1">
+        <f t="shared" si="16"/>
         <v>1500</v>
       </c>
     </row>
-    <row r="44" s="3" customFormat="1" ht="20.1" customHeight="1" spans="9:26">
-      <c r="I44" s="12" t="s">
+    <row r="44" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I44" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L44" s="1">
         <v>12000</v>
       </c>
-      <c r="M44" s="11">
+      <c r="M44" s="1">
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+      <c r="O44" s="1">
+        <v>80000</v>
+      </c>
+      <c r="P44" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
-      </c>
-      <c r="O44" s="11">
-        <v>80000</v>
-      </c>
-      <c r="P44" s="11">
-        <f>O44*$P$39</f>
         <v>12000</v>
       </c>
-      <c r="Q44" s="11">
+      <c r="Q44" s="1">
         <v>18000</v>
       </c>
-      <c r="R44" s="11">
+      <c r="R44" s="1">
+        <f t="shared" si="18"/>
+        <v>6000</v>
+      </c>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1">
         <f t="shared" si="13"/>
-        <v>6000</v>
-      </c>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11">
-        <f>O44*$T$39</f>
         <v>18000</v>
       </c>
-      <c r="U44" s="11">
-        <f>T44</f>
+      <c r="U44" s="1">
+        <f t="shared" si="14"/>
         <v>18000</v>
       </c>
-      <c r="V44" s="11">
+      <c r="V44" s="1">
         <f>U44-U43</f>
         <v>4500</v>
       </c>
-      <c r="Y44" s="11">
-        <f>O44*$Y$39</f>
+      <c r="Y44" s="1">
+        <f t="shared" si="15"/>
         <v>24000</v>
       </c>
-      <c r="Z44" s="11">
-        <f>Y44/12</f>
+      <c r="Z44" s="1">
+        <f t="shared" si="16"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="45" s="3" customFormat="1" ht="20.1" customHeight="1" spans="12:26">
-      <c r="L45" s="11">
+    <row r="45" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L45" s="1">
         <v>35000</v>
       </c>
-      <c r="M45" s="11">
+      <c r="M45" s="1">
+        <f t="shared" si="17"/>
+        <v>23000</v>
+      </c>
+      <c r="O45" s="1">
+        <v>120000</v>
+      </c>
+      <c r="P45" s="1">
         <f t="shared" si="12"/>
-        <v>23000</v>
-      </c>
-      <c r="O45" s="11">
-        <v>120000</v>
-      </c>
-      <c r="P45" s="11">
-        <f>O45*$P$39</f>
         <v>18000</v>
       </c>
-      <c r="Q45" s="11">
+      <c r="Q45" s="1">
         <v>24000</v>
       </c>
-      <c r="R45" s="11">
+      <c r="R45" s="1">
+        <f t="shared" si="18"/>
+        <v>6000</v>
+      </c>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1">
         <f t="shared" si="13"/>
-        <v>6000</v>
-      </c>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11">
-        <f>O45*$T$39</f>
         <v>27000</v>
       </c>
-      <c r="U45" s="11">
-        <f>T45</f>
+      <c r="U45" s="1">
+        <f t="shared" si="14"/>
         <v>27000</v>
       </c>
-      <c r="V45" s="11">
+      <c r="V45" s="1">
         <f>U45-U44</f>
         <v>9000</v>
       </c>
-      <c r="Y45" s="11">
-        <f>O45*$Y$39</f>
+      <c r="Y45" s="1">
+        <f t="shared" si="15"/>
         <v>36000</v>
       </c>
-      <c r="Z45" s="11">
-        <f>Y45/12</f>
+      <c r="Z45" s="1">
+        <f t="shared" si="16"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="46" s="3" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="47" s="3" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="48" s="3" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="49" s="3" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="50" s="3" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="51" s="3" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="52" s="3" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="53" s="3" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="54" s="3" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="55" s="3" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="56" s="3" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="57" s="3" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="58" s="3" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="59" s="3" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="60" s="3" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="46" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -6522,7 +5918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -6530,7 +5926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -6538,7 +5934,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -6546,7 +5942,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -6554,7 +5950,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -6562,7 +5958,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>7</v>
       </c>
@@ -6570,7 +5966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -6578,7 +5974,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>9</v>
       </c>
@@ -6586,7 +5982,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -6595,28 +5991,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="3" width="9" style="3"/>
     <col min="4" max="7" width="11.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -6648,7 +6043,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6693,7 +6088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6739,7 +6134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6785,7 +6180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6831,7 +6226,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6877,7 +6272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6923,7 +6318,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6969,7 +6364,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7015,7 +6410,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7061,7 +6456,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7107,7 +6502,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7153,7 +6548,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7199,7 +6594,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7245,7 +6640,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7291,7 +6686,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7337,7 +6732,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="17" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7383,7 +6778,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7429,7 +6824,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="19" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7475,7 +6870,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="20" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7521,7 +6916,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="21" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7567,7 +6962,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="22" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7613,7 +7008,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="23" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7659,7 +7054,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="24" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7705,7 +7100,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="25" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7751,7 +7146,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="26" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -7797,7 +7192,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="27" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -7843,7 +7238,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="28" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -7889,7 +7284,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="29" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7935,7 +7330,7 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="30" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7981,7 +7376,7 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="31" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -8027,7 +7422,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="32" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -8073,7 +7468,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="33" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -8119,7 +7514,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="34" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -8165,7 +7560,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="35" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -8211,7 +7606,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="36" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -8257,7 +7652,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="37" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -8303,7 +7698,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="38" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -8349,7 +7744,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="39" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -8395,7 +7790,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="40" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -8441,7 +7836,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="41" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -8487,7 +7882,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="42" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -8533,7 +7928,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="43" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -8579,7 +7974,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="44" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -8625,7 +8020,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="45" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -8671,7 +8066,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="46" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -8717,7 +8112,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="47" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -8763,7 +8158,7 @@
         <v>15200</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="48" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -8809,7 +8204,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="49" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -8855,7 +8250,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="50" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -8901,7 +8296,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="51" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -8947,7 +8342,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="52" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -8993,7 +8388,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="53" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -9039,7 +8434,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="54" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -9085,7 +8480,7 @@
         <v>18800</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="55" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -9131,7 +8526,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="56" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -9177,7 +8572,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="57" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -9223,7 +8618,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="58" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -9269,7 +8664,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="59" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -9315,7 +8710,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="60" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -9361,7 +8756,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="61" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -9407,7 +8802,7 @@
         <v>21200</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="62" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -9453,7 +8848,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="63" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -9499,7 +8894,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="64" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -9545,7 +8940,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="65" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -9591,7 +8986,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="66" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -9637,7 +9032,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="67" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -9683,7 +9078,7 @@
         <v>24800</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="68" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -9729,7 +9124,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="69" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -9775,7 +9170,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="70" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -9821,7 +9216,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row r="71" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -9867,7 +9262,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -9894,7 +9289,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="73" spans="11:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K73" s="6">
         <v>55</v>
       </c>
@@ -9914,7 +9309,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="74" spans="11:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K74" s="6">
         <v>56</v>
       </c>
@@ -9934,7 +9329,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="75" spans="11:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K75" s="6">
         <v>58</v>
       </c>
@@ -9954,7 +9349,7 @@
         <v>28400</v>
       </c>
     </row>
-    <row r="76" spans="11:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K76" s="6">
         <v>60</v>
       </c>
@@ -9975,21 +9370,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="3"/>
     <col min="4" max="5" width="15.125" style="4" customWidth="1"/>
@@ -9998,7 +9392,7 @@
     <col min="10" max="10" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>81</v>
       </c>
@@ -10018,7 +9412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -10047,7 +9441,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -10076,7 +9470,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -10105,7 +9499,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -10134,7 +9528,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -10163,7 +9557,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -10192,7 +9586,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -10221,7 +9615,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -10250,7 +9644,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -10279,7 +9673,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -10308,7 +9702,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -10337,7 +9731,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -10366,7 +9760,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -10395,7 +9789,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -10424,7 +9818,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -10453,7 +9847,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -10482,7 +9876,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -10511,7 +9905,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="19" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -10540,7 +9934,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="20" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -10569,7 +9963,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -10598,7 +9992,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -10627,7 +10021,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="23" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -10656,7 +10050,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="24" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -10685,7 +10079,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="25" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -10714,7 +10108,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="26" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -10743,7 +10137,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="27" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -10772,7 +10166,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="28" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -10801,7 +10195,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="29" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -10830,7 +10224,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="30" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -10859,7 +10253,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="31" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -10888,7 +10282,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="32" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -10917,7 +10311,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="33" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -10946,7 +10340,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="34" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -10975,7 +10369,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="35" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -10997,7 +10391,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="36" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -11019,7 +10413,7 @@
         <v>6570</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="37" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -11041,7 +10435,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="38" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -11063,7 +10457,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="39" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -11085,7 +10479,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="40" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -11107,7 +10501,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="41" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -11129,7 +10523,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="42" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -11151,7 +10545,7 @@
         <v>9100</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="43" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -11173,7 +10567,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="44" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -11195,7 +10589,7 @@
         <v>9700</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="45" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -11217,7 +10611,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="46" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -11239,7 +10633,7 @@
         <v>10300</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="47" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -11261,7 +10655,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="48" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -11283,7 +10677,7 @@
         <v>10900</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="49" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -11305,7 +10699,7 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="50" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -11327,7 +10721,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="51" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -11349,7 +10743,7 @@
         <v>11800</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="52" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -11371,7 +10765,7 @@
         <v>12100</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="53" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -11393,7 +10787,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="54" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -11415,7 +10809,7 @@
         <v>12700</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="55" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -11437,7 +10831,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="56" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -11459,7 +10853,7 @@
         <v>13300</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="57" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -11481,7 +10875,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="58" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -11503,7 +10897,7 @@
         <v>13900</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="59" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -11525,7 +10919,7 @@
         <v>14200</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="60" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -11547,7 +10941,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="61" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -11569,7 +10963,7 @@
         <v>14800</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="62" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -11591,7 +10985,7 @@
         <v>15100</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="63" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -11613,7 +11007,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="64" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -11635,7 +11029,7 @@
         <v>15700</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="65" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -11657,7 +11051,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="66" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -11679,7 +11073,7 @@
         <v>16300</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="67" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -11701,7 +11095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="68" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -11723,7 +11117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="69" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -11745,7 +11139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="70" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -11767,7 +11161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="71" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -11789,7 +11183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="72" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -11811,7 +11205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="73" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -11833,7 +11227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="74" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -11855,7 +11249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="75" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -11877,7 +11271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="76" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -11899,7 +11293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="77" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -11921,7 +11315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="78" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -11943,7 +11337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="79" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -11965,7 +11359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="80" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -11987,7 +11381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="81" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -12009,7 +11403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="82" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -12031,7 +11425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="83" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -12053,7 +11447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="84" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -12075,7 +11469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="85" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -12097,7 +11491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="86" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -12119,7 +11513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="87" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -12141,7 +11535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="88" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -12163,7 +11557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="89" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -12185,7 +11579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="90" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -12207,7 +11601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="91" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -12229,7 +11623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="92" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -12251,7 +11645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="93" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -12273,7 +11667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="94" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -12295,7 +11689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="95" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -12317,7 +11711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="96" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -12339,7 +11733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="97" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -12361,7 +11755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="98" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -12383,7 +11777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="99" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -12405,7 +11799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="100" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -12427,7 +11821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
+    <row r="101" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -12449,24 +11843,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="103" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="102" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="13" style="2" customWidth="1"/>
@@ -12476,7 +11869,7 @@
     <col min="16" max="16" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:9">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
@@ -12496,7 +11889,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>20</v>
       </c>
@@ -12536,7 +11929,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>30</v>
       </c>
@@ -12576,7 +11969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:9">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>40</v>
       </c>
@@ -12610,7 +12003,7 @@
         <v>184800</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:9">
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>50</v>
       </c>
@@ -12644,103 +12037,103 @@
         <v>247800</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="31" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="34" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="35" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="36" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="37" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="38" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="44" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="45" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="46" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="47" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="48" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="49" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="50" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="51" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="52" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="53" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="54" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="55" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="56" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="57" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="58" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="59" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="60" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="61" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="62" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="63" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="64" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="65" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="66" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="67" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="68" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="69" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="70" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="71" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="72" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="73" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="74" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="75" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="76" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="77" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="78" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="79" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="80" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="81" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="82" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="83" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="84" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="85" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="86" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="87" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="88" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="89" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="90" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="91" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="92" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="93" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="94" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="95" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="96" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="97" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="98" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="99" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="100" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>